--- a/autoChectWork/2月份考勤汇总表.xlsx
+++ b/autoChectWork/2月份考勤汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\autoChectWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A863747-AF19-43DA-ACF4-E649EBB551AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E079A67-9E4E-4F4C-88E1-A41980601185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1650" yWindow="2220" windowWidth="25875" windowHeight="12345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="313">
   <si>
     <t>2021 年 11 月 份 考 勤 汇 总 表</t>
   </si>
@@ -904,9 +904,6 @@
     <t>应急管理局、工信委</t>
   </si>
   <si>
-    <t>2022年2月份考勤情况汇总表</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -971,19 +968,39 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>2022年2月份考勤情况汇总表</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤率：</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>残联:100.00%、应急管理局:100.00%。</t>
+  </si>
+  <si>
+    <t>司法局:96.88%。</t>
+  </si>
+  <si>
+    <t>林业局:90.62%、文广新局:90.62%、婚检优生:92.71%、财政局:93.75%。</t>
+  </si>
+  <si>
+    <t>发改委:0.00%、水利局:0.00%、民政局:56.92%、环保局:64.06%、公安出入境:65.62%、住建局:70.17%、环城户籍:70.83%、医保中心:70.90%、卫健局:72.92%、教体局:74.55%、交通局运管局:74.58%、农业局:77.60%、税务局:77.99%、不动产:78.31%、市场监管局:81.70%、自然资源局:82.29%、人社局:82.41%、商务局:87.50%、城管局:89.06%。</t>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>司法局:96.88%。</t>
+    <t>0</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>林业局:90.62%、文广新局:90.62%、婚检优生:92.71%、财政局:93.75%。</t>
+    <t>☆</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>发改委:0.00%、水利局:0.00%、民政局:56.92%、环保局:64.06%、公安出入境:65.62%、住建局:70.17%、环城户籍:70.83%、医保中心:70.90%、卫健局:72.92%、教体局:74.55%、交通局运管局:74.58%、农业局:77.60%、税务局:77.99%、不动产:78.31%、市场监管局:81.70%、自然资源局:82.29%、人社局:82.41%、商务局:87.50%、城管局:89.06%。</t>
+    <t>▼</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1408,18 +1425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,8 +1437,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1445,18 +1474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1762,39 +1779,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
     </row>
     <row r="2" spans="1:31" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
@@ -1873,10 +1890,10 @@
       <c r="AB2" s="41">
         <v>30</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AC2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="61"/>
+      <c r="AD2" s="57"/>
       <c r="AE2" s="42"/>
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2655,10 +2672,10 @@
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
-      <c r="AA20" s="57" t="s">
+      <c r="AA20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB20" s="57"/>
+      <c r="AB20" s="58"/>
       <c r="AC20" s="10">
         <f>SUM(AC3:AC19)</f>
         <v>28</v>
@@ -2733,10 +2750,10 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
       <c r="Z22" s="31"/>
-      <c r="AA22" s="57" t="s">
+      <c r="AA22" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB22" s="57"/>
+      <c r="AB22" s="58"/>
       <c r="AC22" s="10">
         <v>2</v>
       </c>
@@ -2808,10 +2825,10 @@
       <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="57" t="s">
+      <c r="AA24" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB24" s="57"/>
+      <c r="AB24" s="58"/>
       <c r="AC24" s="10">
         <v>1</v>
       </c>
@@ -2926,10 +2943,10 @@
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
       <c r="Z27" s="31"/>
-      <c r="AA27" s="57" t="s">
+      <c r="AA27" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB27" s="57"/>
+      <c r="AB27" s="58"/>
       <c r="AC27" s="10">
         <v>6</v>
       </c>
@@ -3001,10 +3018,10 @@
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
-      <c r="AA29" s="57" t="s">
+      <c r="AA29" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB29" s="57"/>
+      <c r="AB29" s="58"/>
       <c r="AC29" s="10">
         <v>1</v>
       </c>
@@ -3074,10 +3091,10 @@
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
       <c r="Z31" s="31"/>
-      <c r="AA31" s="57" t="s">
+      <c r="AA31" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB31" s="57"/>
+      <c r="AB31" s="58"/>
       <c r="AC31" s="10">
         <v>0</v>
       </c>
@@ -3254,10 +3271,10 @@
       <c r="X36" s="31"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="31"/>
-      <c r="AA36" s="57" t="s">
+      <c r="AA36" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB36" s="57"/>
+      <c r="AB36" s="58"/>
       <c r="AC36" s="10">
         <v>1</v>
       </c>
@@ -3333,10 +3350,10 @@
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="Z38" s="31"/>
-      <c r="AA38" s="57" t="s">
+      <c r="AA38" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB38" s="57"/>
+      <c r="AB38" s="58"/>
       <c r="AC38" s="10">
         <v>3</v>
       </c>
@@ -3406,10 +3423,10 @@
       <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
       <c r="Z40" s="31"/>
-      <c r="AA40" s="57" t="s">
+      <c r="AA40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB40" s="57"/>
+      <c r="AB40" s="58"/>
       <c r="AC40" s="10">
         <v>0</v>
       </c>
@@ -3483,10 +3500,10 @@
       <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
       <c r="Z42" s="31"/>
-      <c r="AA42" s="57" t="s">
+      <c r="AA42" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB42" s="57"/>
+      <c r="AB42" s="58"/>
       <c r="AC42" s="10">
         <v>2</v>
       </c>
@@ -3641,10 +3658,10 @@
       <c r="X46" s="31"/>
       <c r="Y46" s="31"/>
       <c r="Z46" s="31"/>
-      <c r="AA46" s="57" t="s">
+      <c r="AA46" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB46" s="57"/>
+      <c r="AB46" s="58"/>
       <c r="AC46" s="10">
         <v>4</v>
       </c>
@@ -3811,10 +3828,10 @@
       <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
       <c r="Z50" s="31"/>
-      <c r="AA50" s="57" t="s">
+      <c r="AA50" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB50" s="57"/>
+      <c r="AB50" s="58"/>
       <c r="AC50" s="10">
         <v>11</v>
       </c>
@@ -4374,10 +4391,10 @@
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="31"/>
-      <c r="AA66" s="57" t="s">
+      <c r="AA66" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB66" s="57"/>
+      <c r="AB66" s="58"/>
       <c r="AC66" s="10">
         <v>8</v>
       </c>
@@ -5014,10 +5031,10 @@
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
       <c r="Z82" s="31"/>
-      <c r="AA82" s="57" t="s">
+      <c r="AA82" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB82" s="57"/>
+      <c r="AB82" s="58"/>
       <c r="AC82" s="10">
         <f>SUM(AC67:AC81)</f>
         <v>25</v>
@@ -5317,10 +5334,10 @@
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="Z90" s="31"/>
-      <c r="AA90" s="57" t="s">
+      <c r="AA90" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB90" s="57"/>
+      <c r="AB90" s="58"/>
       <c r="AC90" s="10">
         <v>4</v>
       </c>
@@ -5463,10 +5480,10 @@
       <c r="X94" s="31"/>
       <c r="Y94" s="31"/>
       <c r="Z94" s="31"/>
-      <c r="AA94" s="57" t="s">
+      <c r="AA94" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB94" s="57"/>
+      <c r="AB94" s="58"/>
       <c r="AC94" s="10">
         <v>2</v>
       </c>
@@ -6095,10 +6112,10 @@
       <c r="X109" s="31"/>
       <c r="Y109" s="31"/>
       <c r="Z109" s="31"/>
-      <c r="AA109" s="57" t="s">
+      <c r="AA109" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB109" s="57"/>
+      <c r="AB109" s="58"/>
       <c r="AC109" s="10">
         <f>SUM(AC95:AC108)</f>
         <v>37</v>
@@ -6364,10 +6381,10 @@
       <c r="X116" s="31"/>
       <c r="Y116" s="31"/>
       <c r="Z116" s="31"/>
-      <c r="AA116" s="57" t="s">
+      <c r="AA116" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB116" s="57"/>
+      <c r="AB116" s="58"/>
       <c r="AC116" s="10">
         <v>9</v>
       </c>
@@ -8489,10 +8506,10 @@
       <c r="X167" s="31"/>
       <c r="Y167" s="31"/>
       <c r="Z167" s="31"/>
-      <c r="AA167" s="57" t="s">
+      <c r="AA167" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB167" s="57"/>
+      <c r="AB167" s="58"/>
       <c r="AC167" s="10">
         <f>SUM(AC117:AC166)</f>
         <v>132</v>
@@ -8945,10 +8962,10 @@
       <c r="X179" s="31"/>
       <c r="Y179" s="31"/>
       <c r="Z179" s="31"/>
-      <c r="AA179" s="57" t="s">
+      <c r="AA179" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB179" s="57"/>
+      <c r="AB179" s="58"/>
       <c r="AC179" s="10">
         <v>15</v>
       </c>
@@ -9821,10 +9838,10 @@
       <c r="X203" s="31"/>
       <c r="Y203" s="31"/>
       <c r="Z203" s="31"/>
-      <c r="AA203" s="57" t="s">
+      <c r="AA203" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB203" s="57"/>
+      <c r="AB203" s="58"/>
       <c r="AC203" s="10">
         <f>SUM(AC180:AC202)</f>
         <v>22</v>
@@ -9934,10 +9951,10 @@
       <c r="X206" s="31"/>
       <c r="Y206" s="31"/>
       <c r="Z206" s="31"/>
-      <c r="AA206" s="57" t="s">
+      <c r="AA206" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB206" s="57"/>
+      <c r="AB206" s="58"/>
       <c r="AC206" s="10">
         <v>3</v>
       </c>
@@ -10308,10 +10325,10 @@
       <c r="X216" s="31"/>
       <c r="Y216" s="31"/>
       <c r="Z216" s="31"/>
-      <c r="AA216" s="57" t="s">
+      <c r="AA216" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB216" s="57"/>
+      <c r="AB216" s="58"/>
       <c r="AC216" s="10">
         <v>11</v>
       </c>
@@ -10404,36 +10421,36 @@
       <c r="AE218" s="5"/>
     </row>
     <row r="219" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="56"/>
-      <c r="B219" s="56"/>
-      <c r="C219" s="56"/>
-      <c r="D219" s="56"/>
-      <c r="E219" s="56"/>
-      <c r="F219" s="56"/>
-      <c r="G219" s="56"/>
-      <c r="H219" s="56"/>
-      <c r="I219" s="56"/>
-      <c r="J219" s="56"/>
-      <c r="K219" s="56"/>
-      <c r="L219" s="56"/>
-      <c r="M219" s="56"/>
-      <c r="N219" s="56"/>
-      <c r="O219" s="56"/>
-      <c r="P219" s="56"/>
-      <c r="Q219" s="56"/>
-      <c r="R219" s="56"/>
-      <c r="S219" s="56"/>
-      <c r="T219" s="56"/>
-      <c r="U219" s="56"/>
-      <c r="V219" s="56"/>
-      <c r="W219" s="56"/>
-      <c r="X219" s="56"/>
-      <c r="Y219" s="56"/>
+      <c r="A219" s="59"/>
+      <c r="B219" s="59"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="59"/>
+      <c r="E219" s="59"/>
+      <c r="F219" s="59"/>
+      <c r="G219" s="59"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="59"/>
+      <c r="J219" s="59"/>
+      <c r="K219" s="59"/>
+      <c r="L219" s="59"/>
+      <c r="M219" s="59"/>
+      <c r="N219" s="59"/>
+      <c r="O219" s="59"/>
+      <c r="P219" s="59"/>
+      <c r="Q219" s="59"/>
+      <c r="R219" s="59"/>
+      <c r="S219" s="59"/>
+      <c r="T219" s="59"/>
+      <c r="U219" s="59"/>
+      <c r="V219" s="59"/>
+      <c r="W219" s="59"/>
+      <c r="X219" s="59"/>
+      <c r="Y219" s="59"/>
       <c r="Z219" s="31"/>
-      <c r="AA219" s="57" t="s">
+      <c r="AA219" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB219" s="57"/>
+      <c r="AB219" s="58"/>
       <c r="AC219" s="10">
         <v>4</v>
       </c>
@@ -11153,10 +11170,10 @@
       <c r="X236" s="31"/>
       <c r="Y236" s="31"/>
       <c r="Z236" s="31"/>
-      <c r="AA236" s="57" t="s">
+      <c r="AA236" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB236" s="57"/>
+      <c r="AB236" s="58"/>
       <c r="AC236" s="10">
         <f>SUM(AC220:AC235)</f>
         <v>46</v>
@@ -11601,10 +11618,10 @@
       <c r="X247" s="31"/>
       <c r="Y247" s="31"/>
       <c r="Z247" s="31"/>
-      <c r="AA247" s="57" t="s">
+      <c r="AA247" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB247" s="57"/>
+      <c r="AB247" s="58"/>
       <c r="AC247" s="10">
         <f>SUM(AC238:AC246)</f>
         <v>23</v>
@@ -11759,10 +11776,10 @@
       <c r="X251" s="31"/>
       <c r="Y251" s="31"/>
       <c r="Z251" s="31"/>
-      <c r="AA251" s="57" t="s">
+      <c r="AA251" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AB251" s="57"/>
+      <c r="AB251" s="58"/>
       <c r="AC251" s="10">
         <v>3</v>
       </c>
@@ -11794,151 +11811,151 @@
       <c r="A254" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B254" s="54" t="s">
+      <c r="B254" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C254" s="54"/>
-      <c r="D254" s="54"/>
-      <c r="E254" s="54"/>
-      <c r="F254" s="54"/>
-      <c r="G254" s="54"/>
-      <c r="H254" s="54"/>
-      <c r="I254" s="54"/>
-      <c r="J254" s="54"/>
-      <c r="K254" s="54"/>
-      <c r="L254" s="54"/>
-      <c r="M254" s="54"/>
-      <c r="N254" s="54"/>
-      <c r="O254" s="54"/>
-      <c r="P254" s="54"/>
-      <c r="Q254" s="54"/>
-      <c r="R254" s="54"/>
-      <c r="S254" s="54"/>
-      <c r="T254" s="54"/>
-      <c r="U254" s="54"/>
-      <c r="V254" s="54"/>
-      <c r="W254" s="54"/>
-      <c r="X254" s="54"/>
-      <c r="Y254" s="54"/>
-      <c r="Z254" s="54"/>
-      <c r="AA254" s="54"/>
-      <c r="AB254" s="54"/>
-      <c r="AC254" s="54"/>
-      <c r="AD254" s="54"/>
-      <c r="AE254" s="54"/>
-      <c r="AF254" s="54"/>
+      <c r="C254" s="60"/>
+      <c r="D254" s="60"/>
+      <c r="E254" s="60"/>
+      <c r="F254" s="60"/>
+      <c r="G254" s="60"/>
+      <c r="H254" s="60"/>
+      <c r="I254" s="60"/>
+      <c r="J254" s="60"/>
+      <c r="K254" s="60"/>
+      <c r="L254" s="60"/>
+      <c r="M254" s="60"/>
+      <c r="N254" s="60"/>
+      <c r="O254" s="60"/>
+      <c r="P254" s="60"/>
+      <c r="Q254" s="60"/>
+      <c r="R254" s="60"/>
+      <c r="S254" s="60"/>
+      <c r="T254" s="60"/>
+      <c r="U254" s="60"/>
+      <c r="V254" s="60"/>
+      <c r="W254" s="60"/>
+      <c r="X254" s="60"/>
+      <c r="Y254" s="60"/>
+      <c r="Z254" s="60"/>
+      <c r="AA254" s="60"/>
+      <c r="AB254" s="60"/>
+      <c r="AC254" s="60"/>
+      <c r="AD254" s="60"/>
+      <c r="AE254" s="60"/>
+      <c r="AF254" s="60"/>
     </row>
     <row r="255" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="55" t="s">
+      <c r="A255" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B255" s="54" t="s">
+      <c r="B255" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="C255" s="54"/>
-      <c r="D255" s="54"/>
-      <c r="E255" s="54"/>
-      <c r="F255" s="54"/>
-      <c r="G255" s="54"/>
-      <c r="H255" s="54"/>
-      <c r="I255" s="54"/>
-      <c r="J255" s="54"/>
-      <c r="K255" s="54"/>
-      <c r="L255" s="54"/>
-      <c r="M255" s="54"/>
-      <c r="N255" s="54"/>
-      <c r="O255" s="54"/>
-      <c r="P255" s="54"/>
-      <c r="Q255" s="54"/>
-      <c r="R255" s="54"/>
-      <c r="S255" s="54"/>
-      <c r="T255" s="54"/>
-      <c r="U255" s="54"/>
-      <c r="V255" s="54"/>
-      <c r="W255" s="54"/>
-      <c r="X255" s="54"/>
-      <c r="Y255" s="54"/>
-      <c r="Z255" s="54"/>
-      <c r="AA255" s="54"/>
-      <c r="AB255" s="54"/>
-      <c r="AC255" s="54"/>
-      <c r="AD255" s="54"/>
-      <c r="AE255" s="54"/>
-      <c r="AF255" s="54"/>
+      <c r="C255" s="60"/>
+      <c r="D255" s="60"/>
+      <c r="E255" s="60"/>
+      <c r="F255" s="60"/>
+      <c r="G255" s="60"/>
+      <c r="H255" s="60"/>
+      <c r="I255" s="60"/>
+      <c r="J255" s="60"/>
+      <c r="K255" s="60"/>
+      <c r="L255" s="60"/>
+      <c r="M255" s="60"/>
+      <c r="N255" s="60"/>
+      <c r="O255" s="60"/>
+      <c r="P255" s="60"/>
+      <c r="Q255" s="60"/>
+      <c r="R255" s="60"/>
+      <c r="S255" s="60"/>
+      <c r="T255" s="60"/>
+      <c r="U255" s="60"/>
+      <c r="V255" s="60"/>
+      <c r="W255" s="60"/>
+      <c r="X255" s="60"/>
+      <c r="Y255" s="60"/>
+      <c r="Z255" s="60"/>
+      <c r="AA255" s="60"/>
+      <c r="AB255" s="60"/>
+      <c r="AC255" s="60"/>
+      <c r="AD255" s="60"/>
+      <c r="AE255" s="60"/>
+      <c r="AF255" s="60"/>
     </row>
     <row r="256" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="55"/>
-      <c r="B256" s="54" t="s">
+      <c r="A256" s="61"/>
+      <c r="B256" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="C256" s="54"/>
-      <c r="D256" s="54"/>
-      <c r="E256" s="54"/>
-      <c r="F256" s="54"/>
-      <c r="G256" s="54"/>
-      <c r="H256" s="54"/>
-      <c r="I256" s="54"/>
-      <c r="J256" s="54"/>
-      <c r="K256" s="54"/>
-      <c r="L256" s="54"/>
-      <c r="M256" s="54"/>
-      <c r="N256" s="54"/>
-      <c r="O256" s="54"/>
-      <c r="P256" s="54"/>
-      <c r="Q256" s="54"/>
-      <c r="R256" s="54"/>
-      <c r="S256" s="54"/>
-      <c r="T256" s="54"/>
-      <c r="U256" s="54"/>
-      <c r="V256" s="54"/>
-      <c r="W256" s="54"/>
-      <c r="X256" s="54"/>
-      <c r="Y256" s="54"/>
-      <c r="Z256" s="54"/>
-      <c r="AA256" s="54"/>
-      <c r="AB256" s="54"/>
-      <c r="AC256" s="54"/>
-      <c r="AD256" s="54"/>
-      <c r="AE256" s="54"/>
-      <c r="AF256" s="54"/>
+      <c r="C256" s="60"/>
+      <c r="D256" s="60"/>
+      <c r="E256" s="60"/>
+      <c r="F256" s="60"/>
+      <c r="G256" s="60"/>
+      <c r="H256" s="60"/>
+      <c r="I256" s="60"/>
+      <c r="J256" s="60"/>
+      <c r="K256" s="60"/>
+      <c r="L256" s="60"/>
+      <c r="M256" s="60"/>
+      <c r="N256" s="60"/>
+      <c r="O256" s="60"/>
+      <c r="P256" s="60"/>
+      <c r="Q256" s="60"/>
+      <c r="R256" s="60"/>
+      <c r="S256" s="60"/>
+      <c r="T256" s="60"/>
+      <c r="U256" s="60"/>
+      <c r="V256" s="60"/>
+      <c r="W256" s="60"/>
+      <c r="X256" s="60"/>
+      <c r="Y256" s="60"/>
+      <c r="Z256" s="60"/>
+      <c r="AA256" s="60"/>
+      <c r="AB256" s="60"/>
+      <c r="AC256" s="60"/>
+      <c r="AD256" s="60"/>
+      <c r="AE256" s="60"/>
+      <c r="AF256" s="60"/>
     </row>
     <row r="257" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="B257" s="54" t="s">
+      <c r="B257" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="C257" s="54"/>
-      <c r="D257" s="54"/>
-      <c r="E257" s="54"/>
-      <c r="F257" s="54"/>
-      <c r="G257" s="54"/>
-      <c r="H257" s="54"/>
-      <c r="I257" s="54"/>
-      <c r="J257" s="54"/>
-      <c r="K257" s="54"/>
-      <c r="L257" s="54"/>
-      <c r="M257" s="54"/>
-      <c r="N257" s="54"/>
-      <c r="O257" s="54"/>
-      <c r="P257" s="54"/>
-      <c r="Q257" s="54"/>
-      <c r="R257" s="54"/>
-      <c r="S257" s="54"/>
-      <c r="T257" s="54"/>
-      <c r="U257" s="54"/>
-      <c r="V257" s="54"/>
-      <c r="W257" s="54"/>
-      <c r="X257" s="54"/>
-      <c r="Y257" s="54"/>
-      <c r="Z257" s="54"/>
-      <c r="AA257" s="54"/>
-      <c r="AB257" s="54"/>
-      <c r="AC257" s="54"/>
-      <c r="AD257" s="54"/>
-      <c r="AE257" s="54"/>
-      <c r="AF257" s="54"/>
+      <c r="C257" s="60"/>
+      <c r="D257" s="60"/>
+      <c r="E257" s="60"/>
+      <c r="F257" s="60"/>
+      <c r="G257" s="60"/>
+      <c r="H257" s="60"/>
+      <c r="I257" s="60"/>
+      <c r="J257" s="60"/>
+      <c r="K257" s="60"/>
+      <c r="L257" s="60"/>
+      <c r="M257" s="60"/>
+      <c r="N257" s="60"/>
+      <c r="O257" s="60"/>
+      <c r="P257" s="60"/>
+      <c r="Q257" s="60"/>
+      <c r="R257" s="60"/>
+      <c r="S257" s="60"/>
+      <c r="T257" s="60"/>
+      <c r="U257" s="60"/>
+      <c r="V257" s="60"/>
+      <c r="W257" s="60"/>
+      <c r="X257" s="60"/>
+      <c r="Y257" s="60"/>
+      <c r="Z257" s="60"/>
+      <c r="AA257" s="60"/>
+      <c r="AB257" s="60"/>
+      <c r="AC257" s="60"/>
+      <c r="AD257" s="60"/>
+      <c r="AE257" s="60"/>
+      <c r="AF257" s="60"/>
     </row>
     <row r="258" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C258" s="34"/>
@@ -12095,41 +12112,41 @@
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="B254:AF254"/>
+    <mergeCell ref="B255:AF255"/>
+    <mergeCell ref="B256:AF256"/>
+    <mergeCell ref="B257:AF257"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="A219:Y219"/>
+    <mergeCell ref="AA219:AB219"/>
+    <mergeCell ref="AA236:AB236"/>
+    <mergeCell ref="AA247:AB247"/>
+    <mergeCell ref="AA251:AB251"/>
+    <mergeCell ref="AA167:AB167"/>
+    <mergeCell ref="AA179:AB179"/>
+    <mergeCell ref="AA203:AB203"/>
+    <mergeCell ref="AA206:AB206"/>
+    <mergeCell ref="AA216:AB216"/>
+    <mergeCell ref="AA82:AB82"/>
+    <mergeCell ref="AA90:AB90"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AA109:AB109"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA38:AB38"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AA20:AB20"/>
     <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AA82:AB82"/>
-    <mergeCell ref="AA90:AB90"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AA109:AB109"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AA167:AB167"/>
-    <mergeCell ref="AA179:AB179"/>
-    <mergeCell ref="AA203:AB203"/>
-    <mergeCell ref="AA206:AB206"/>
-    <mergeCell ref="AA216:AB216"/>
-    <mergeCell ref="A219:Y219"/>
-    <mergeCell ref="AA219:AB219"/>
-    <mergeCell ref="AA236:AB236"/>
-    <mergeCell ref="AA247:AB247"/>
-    <mergeCell ref="AA251:AB251"/>
-    <mergeCell ref="B254:AF254"/>
-    <mergeCell ref="B255:AF255"/>
-    <mergeCell ref="B256:AF256"/>
-    <mergeCell ref="B257:AF257"/>
-    <mergeCell ref="A255:A256"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12142,8 +12159,8 @@
   <dimension ref="A1:AA263"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y255" sqref="Y255"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -12167,35 +12184,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
+      <c r="A1" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
     </row>
     <row r="2" spans="1:27" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -12301,7 +12318,7 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
@@ -12335,7 +12352,7 @@
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -12378,12 +12395,12 @@
         <v>1</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="20">
-        <v>1</v>
+      <c r="L5" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
@@ -12425,14 +12442,14 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
-      <c r="N6" s="20">
-        <v>0</v>
+      <c r="N6" s="20" t="s">
+        <v>310</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="20">
-        <v>1</v>
+      <c r="R6" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="S6" s="21" t="s">
         <v>11</v>
@@ -12488,8 +12505,8 @@
       </c>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
-      <c r="X7" s="20">
-        <v>1</v>
+      <c r="X7" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="Y7" s="20">
         <v>5</v>
@@ -12599,7 +12616,7 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="Y9" s="20">
         <v>15</v>
@@ -12662,7 +12679,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -12695,7 +12712,7 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20" t="s">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="Y11" s="20">
         <v>8.5</v>
@@ -12777,8 +12794,8 @@
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
-      <c r="U13" s="20">
-        <v>1</v>
+      <c r="U13" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -12814,7 +12831,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
@@ -12878,7 +12895,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -13043,14 +13060,14 @@
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X20" s="20"/>
       <c r="Y20" s="20">
         <v>59</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA20" s="24">
         <v>0.78308823529411764</v>
@@ -13061,7 +13078,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -13114,14 +13131,14 @@
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
       <c r="W22" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X22" s="20"/>
       <c r="Y22" s="20">
         <v>1</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA22" s="24">
         <v>0.9375</v>
@@ -13183,14 +13200,14 @@
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X24" s="20"/>
       <c r="Y24" s="20">
         <v>0</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA24" s="24">
         <v>1</v>
@@ -13204,7 +13221,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D25" s="20">
         <v>1</v>
@@ -13294,14 +13311,14 @@
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
       <c r="W27" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X27" s="20"/>
       <c r="Y27" s="20">
         <v>3.5</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA27" s="24">
         <v>0.890625</v>
@@ -13309,7 +13326,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>50</v>
@@ -13395,14 +13412,14 @@
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
       <c r="W29" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X29" s="20"/>
       <c r="Y29" s="20">
         <v>16</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA29" s="24">
         <v>0</v>
@@ -13458,7 +13475,7 @@
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -13483,7 +13500,7 @@
       <c r="P31" s="20"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
@@ -13515,7 +13532,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K32" s="20">
         <v>1</v>
@@ -13524,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N32" s="21" t="s">
         <v>11</v>
@@ -13537,7 +13554,7 @@
         <v>11</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
@@ -13570,14 +13587,14 @@
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X33" s="20"/>
       <c r="Y33" s="20">
         <v>16.5</v>
       </c>
       <c r="Z33" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA33" s="24">
         <v>0.65625</v>
@@ -13597,17 +13614,17 @@
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
@@ -13669,12 +13686,12 @@
         <v>11</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y35" s="20">
         <v>6.5</v>
@@ -13703,7 +13720,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N36" s="20"/>
       <c r="O36" s="20"/>
@@ -13717,12 +13734,12 @@
         <v>11</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y36" s="20">
         <v>5.5</v>
@@ -13793,14 +13810,14 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X38" s="20"/>
       <c r="Y38" s="20">
         <v>23</v>
       </c>
       <c r="Z38" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA38" s="24">
         <v>0.640625</v>
@@ -13821,7 +13838,7 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -13854,7 +13871,7 @@
         <v>11</v>
       </c>
       <c r="U39" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
@@ -13960,14 +13977,14 @@
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X42" s="20"/>
       <c r="Y42" s="20">
         <v>14</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA42" s="24">
         <v>0.70833333333333337</v>
@@ -14067,7 +14084,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -14079,7 +14096,7 @@
       </c>
       <c r="P45" s="20"/>
       <c r="Q45" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
@@ -14397,7 +14414,7 @@
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
@@ -14459,10 +14476,10 @@
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -14543,14 +14560,14 @@
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
       <c r="W58" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X58" s="20"/>
       <c r="Y58" s="20">
         <v>17.5</v>
       </c>
       <c r="Z58" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA58" s="24">
         <v>0.92708333333333337</v>
@@ -14677,7 +14694,7 @@
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -14752,7 +14769,7 @@
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>11</v>
@@ -14803,7 +14820,7 @@
       <c r="P64" s="20"/>
       <c r="Q64" s="20"/>
       <c r="R64" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
@@ -14835,10 +14852,10 @@
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
       <c r="L65" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
@@ -14875,7 +14892,7 @@
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
@@ -14904,7 +14921,7 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
@@ -14912,7 +14929,7 @@
         <v>11</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
@@ -15036,7 +15053,7 @@
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
@@ -15044,14 +15061,14 @@
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L70" s="20">
         <v>1</v>
       </c>
       <c r="M70" s="20"/>
       <c r="N70" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O70" s="20"/>
       <c r="P70" s="20"/>
@@ -15077,7 +15094,7 @@
         <v>88</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="21" t="s">
@@ -15220,7 +15237,7 @@
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
       <c r="W74" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X74" s="20"/>
       <c r="Y74" s="20">
@@ -15246,7 +15263,7 @@
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
@@ -15296,7 +15313,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
@@ -15305,7 +15322,7 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V76" s="20"/>
       <c r="W76" s="20"/>
@@ -15326,7 +15343,7 @@
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="20">
@@ -15338,7 +15355,7 @@
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M77" s="20">
         <v>0</v>
@@ -15349,7 +15366,7 @@
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
       <c r="Q77" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
@@ -15444,7 +15461,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -15468,7 +15485,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
       <c r="T80" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
@@ -15557,7 +15574,7 @@
       <c r="U82" s="20"/>
       <c r="V82" s="20"/>
       <c r="W82" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X82" s="20"/>
       <c r="Y82" s="20">
@@ -15675,7 +15692,7 @@
       <c r="V85" s="20"/>
       <c r="W85" s="20"/>
       <c r="X85" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y85" s="20">
         <v>4.5</v>
@@ -15704,7 +15721,7 @@
       <c r="U86" s="20"/>
       <c r="V86" s="20"/>
       <c r="W86" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X86" s="20"/>
       <c r="Y86" s="20">
@@ -15730,7 +15747,7 @@
         <v>11</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>11</v>
@@ -15744,24 +15761,24 @@
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
       <c r="N87" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O87" s="20"/>
       <c r="P87" s="20"/>
       <c r="Q87" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R87" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S87" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T87" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U87" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V87" s="20"/>
       <c r="W87" s="20"/>
@@ -15783,7 +15800,7 @@
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
@@ -15801,22 +15818,22 @@
       <c r="O88" s="20"/>
       <c r="P88" s="20"/>
       <c r="Q88" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R88" s="20"/>
       <c r="S88" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T88" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U88" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V88" s="20"/>
       <c r="W88" s="20"/>
       <c r="X88" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y88" s="20">
         <v>6</v>
@@ -15854,7 +15871,7 @@
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
       <c r="N89" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O89" s="20"/>
       <c r="P89" s="20"/>
@@ -15864,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U89" s="20"/>
       <c r="V89" s="20"/>
@@ -15892,14 +15909,14 @@
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M90" s="20"/>
       <c r="N90" s="20"/>
       <c r="O90" s="20"/>
       <c r="P90" s="20"/>
       <c r="Q90" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R90" s="20"/>
       <c r="S90" s="20">
@@ -15966,42 +15983,42 @@
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
       <c r="K92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L92" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O92" s="20"/>
       <c r="P92" s="20"/>
       <c r="Q92" s="20"/>
       <c r="R92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V92" s="20"/>
       <c r="W92" s="20"/>
@@ -16020,7 +16037,7 @@
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -16029,32 +16046,32 @@
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
       <c r="K93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L93" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O93" s="20"/>
       <c r="P93" s="20"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T93" s="20"/>
       <c r="U93" s="20"/>
       <c r="V93" s="20"/>
       <c r="W93" s="20"/>
       <c r="X93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y93" s="20">
         <v>4.5</v>
@@ -16076,7 +16093,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G94" s="20">
         <v>0</v>
@@ -16087,7 +16104,7 @@
         <v>11</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
@@ -16100,7 +16117,7 @@
         <v>11</v>
       </c>
       <c r="R94" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S94" s="20">
         <v>1</v>
@@ -16134,7 +16151,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G95" s="20">
         <v>0</v>
@@ -16147,7 +16164,7 @@
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N95" s="20"/>
       <c r="O95" s="20"/>
@@ -16159,7 +16176,7 @@
       </c>
       <c r="T95" s="20"/>
       <c r="U95" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V95" s="20"/>
       <c r="W95" s="20"/>
@@ -16194,7 +16211,7 @@
       <c r="P96" s="20"/>
       <c r="Q96" s="20"/>
       <c r="R96" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S96" s="20"/>
       <c r="T96" s="20"/>
@@ -16334,13 +16351,13 @@
       </c>
       <c r="M99" s="20"/>
       <c r="N99" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O99" s="20"/>
       <c r="P99" s="20"/>
       <c r="Q99" s="20"/>
       <c r="R99" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S99" s="20">
         <v>0</v>
@@ -16349,7 +16366,7 @@
         <v>11</v>
       </c>
       <c r="U99" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V99" s="20"/>
       <c r="W99" s="20"/>
@@ -16450,14 +16467,14 @@
       <c r="U101" s="20"/>
       <c r="V101" s="20"/>
       <c r="W101" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X101" s="20"/>
       <c r="Y101" s="20">
         <v>96.5</v>
       </c>
       <c r="Z101" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA101" s="24">
         <v>0.5691964285714286</v>
@@ -16554,7 +16571,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104" s="20">
         <v>1</v>
@@ -16596,7 +16613,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -16607,7 +16624,7 @@
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
       <c r="K105" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
@@ -16733,14 +16750,14 @@
       <c r="U108" s="20"/>
       <c r="V108" s="20"/>
       <c r="W108" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X108" s="20"/>
       <c r="Y108" s="20">
         <v>21.5</v>
       </c>
       <c r="Z108" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA108" s="24">
         <v>0.77604166666666663</v>
@@ -16762,7 +16779,7 @@
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
       <c r="K109" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L109" s="20"/>
       <c r="M109" s="20"/>
@@ -17025,7 +17042,7 @@
         <v>140</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20">
@@ -17034,7 +17051,7 @@
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
       <c r="G116" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
@@ -17224,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L121" s="20"/>
       <c r="M121" s="20"/>
@@ -17236,7 +17253,7 @@
       <c r="S121" s="20"/>
       <c r="T121" s="20"/>
       <c r="U121" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V121" s="20"/>
       <c r="W121" s="20"/>
@@ -17296,7 +17313,7 @@
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
       <c r="G123" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H123" s="20"/>
       <c r="I123" s="20"/>
@@ -17331,7 +17348,7 @@
       </c>
       <c r="C124" s="27"/>
       <c r="D124" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E124" s="27"/>
       <c r="F124" s="27">
@@ -17429,7 +17446,7 @@
         <v>11</v>
       </c>
       <c r="R126" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S126" s="20"/>
       <c r="T126" s="20"/>
@@ -17495,7 +17512,7 @@
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
       <c r="J128" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K128" s="20"/>
       <c r="L128" s="20"/>
@@ -17541,7 +17558,7 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M129" s="20"/>
       <c r="N129" s="20"/>
@@ -17551,7 +17568,7 @@
       <c r="R129" s="20"/>
       <c r="S129" s="20"/>
       <c r="T129" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U129" s="20"/>
       <c r="V129" s="20"/>
@@ -17610,7 +17627,7 @@
         <v>11</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F131" s="27">
         <v>0</v>
@@ -17630,7 +17647,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N131" s="27">
         <v>0</v>
@@ -17655,7 +17672,7 @@
       <c r="V131" s="20"/>
       <c r="W131" s="20"/>
       <c r="X131" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y131" s="20">
         <v>14.5</v>
@@ -17670,7 +17687,7 @@
         <v>162</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
@@ -17695,7 +17712,7 @@
       <c r="R132" s="20"/>
       <c r="S132" s="20"/>
       <c r="T132" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U132" s="20"/>
       <c r="V132" s="20"/>
@@ -17950,14 +17967,14 @@
       </c>
       <c r="D139" s="20"/>
       <c r="E139" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
       <c r="J139" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K139" s="21"/>
       <c r="L139" s="20"/>
@@ -18009,7 +18026,7 @@
       <c r="P140" s="20"/>
       <c r="Q140" s="20"/>
       <c r="R140" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S140" s="20"/>
       <c r="T140" s="20"/>
@@ -18145,7 +18162,7 @@
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
       <c r="F144" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G144" s="20">
         <v>0</v>
@@ -18166,7 +18183,7 @@
       <c r="O144" s="20"/>
       <c r="P144" s="20"/>
       <c r="Q144" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R144" s="20"/>
       <c r="S144" s="20"/>
@@ -18316,7 +18333,7 @@
       <c r="O148" s="20"/>
       <c r="P148" s="20"/>
       <c r="Q148" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R148" s="20"/>
       <c r="S148" s="20"/>
@@ -18339,7 +18356,7 @@
       </c>
       <c r="C149" s="20"/>
       <c r="D149" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
@@ -18491,14 +18508,14 @@
       <c r="L152" s="20"/>
       <c r="M152" s="20"/>
       <c r="N152" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O152" s="20"/>
       <c r="P152" s="20"/>
       <c r="Q152" s="20"/>
       <c r="R152" s="20"/>
       <c r="S152" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T152" s="20"/>
       <c r="U152" s="20"/>
@@ -18707,7 +18724,7 @@
       <c r="R157" s="20"/>
       <c r="S157" s="20"/>
       <c r="T157" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U157" s="20"/>
       <c r="V157" s="20"/>
@@ -18814,14 +18831,14 @@
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
       <c r="W160" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X160" s="20"/>
       <c r="Y160" s="20">
         <v>143.5</v>
       </c>
       <c r="Z160" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA160" s="24">
         <v>0.82414215686274506</v>
@@ -18832,14 +18849,14 @@
         <v>58</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H161" s="20"/>
       <c r="I161" s="20"/>
@@ -18854,7 +18871,7 @@
       <c r="P161" s="20"/>
       <c r="Q161" s="20"/>
       <c r="R161" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S161" s="20"/>
       <c r="T161" s="20"/>
@@ -18889,14 +18906,14 @@
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
       <c r="W162" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X162" s="20"/>
       <c r="Y162" s="20">
         <v>2</v>
       </c>
       <c r="Z162" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA162" s="24">
         <v>0.875</v>
@@ -19009,7 +19026,7 @@
       </c>
       <c r="C165" s="20"/>
       <c r="D165" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
@@ -19094,7 +19111,7 @@
       <c r="K167" s="20"/>
       <c r="L167" s="20"/>
       <c r="M167" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N167" s="20"/>
       <c r="O167" s="20"/>
@@ -19117,7 +19134,7 @@
         <v>190</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -19205,7 +19222,7 @@
         <v>190</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -19255,7 +19272,7 @@
       <c r="J171" s="20"/>
       <c r="K171" s="20"/>
       <c r="L171" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M171" s="20"/>
       <c r="N171" s="20"/>
@@ -19271,7 +19288,7 @@
       <c r="V171" s="20"/>
       <c r="W171" s="20"/>
       <c r="X171" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y171" s="20">
         <v>2</v>
@@ -19355,7 +19372,7 @@
         <v>190</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
@@ -19421,7 +19438,7 @@
       <c r="V175" s="20"/>
       <c r="W175" s="20"/>
       <c r="X175" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y175" s="20">
         <v>3.5</v>
@@ -19440,7 +19457,7 @@
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
       <c r="G176" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H176" s="20"/>
       <c r="I176" s="20"/>
@@ -19488,14 +19505,14 @@
       <c r="U177" s="20"/>
       <c r="V177" s="20"/>
       <c r="W177" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X177" s="20"/>
       <c r="Y177" s="20">
         <v>41</v>
       </c>
       <c r="Z177" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA177" s="24">
         <v>0.8169642857142857</v>
@@ -19589,14 +19606,14 @@
       <c r="U179" s="20"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X179" s="20"/>
       <c r="Y179" s="20">
         <v>16</v>
       </c>
       <c r="Z179" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA179" s="24">
         <v>0</v>
@@ -19881,7 +19898,7 @@
         <v>202</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
@@ -20058,7 +20075,7 @@
       <c r="K191" s="20"/>
       <c r="L191" s="20"/>
       <c r="M191" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N191" s="20"/>
       <c r="O191" s="20"/>
@@ -20089,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G192" s="20">
         <v>1</v>
@@ -20522,7 +20539,7 @@
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
       <c r="G202" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H202" s="20"/>
       <c r="I202" s="20"/>
@@ -20612,14 +20629,14 @@
       <c r="U204" s="20"/>
       <c r="V204" s="20"/>
       <c r="W204" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X204" s="20"/>
       <c r="Y204" s="20">
         <v>84.5</v>
       </c>
       <c r="Z204" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA204" s="24">
         <v>0.77994791666666663</v>
@@ -20634,7 +20651,7 @@
       </c>
       <c r="C205" s="20"/>
       <c r="D205" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
@@ -20651,7 +20668,7 @@
       <c r="Q205" s="20"/>
       <c r="R205" s="20"/>
       <c r="S205" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T205" s="20"/>
       <c r="U205" s="20"/>
@@ -20719,14 +20736,14 @@
       <c r="U207" s="20"/>
       <c r="V207" s="20"/>
       <c r="W207" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X207" s="20"/>
       <c r="Y207" s="20">
         <v>1</v>
       </c>
       <c r="Z207" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA207" s="24">
         <v>0.96875</v>
@@ -20743,17 +20760,17 @@
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
       <c r="F208" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
       <c r="I208" s="20"/>
       <c r="J208" s="20"/>
       <c r="K208" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L208" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M208" s="20"/>
       <c r="N208" s="20"/>
@@ -20762,7 +20779,7 @@
       <c r="Q208" s="20"/>
       <c r="R208" s="20"/>
       <c r="S208" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T208" s="20"/>
       <c r="U208" s="20"/>
@@ -20929,7 +20946,7 @@
       <c r="H212" s="20"/>
       <c r="I212" s="20"/>
       <c r="J212" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K212" s="20"/>
       <c r="L212" s="20"/>
@@ -20944,7 +20961,7 @@
         <v>0</v>
       </c>
       <c r="S212" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T212" s="20"/>
       <c r="U212" s="20">
@@ -20974,14 +20991,14 @@
         <v>11</v>
       </c>
       <c r="G213" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H213" s="20"/>
       <c r="I213" s="20"/>
       <c r="J213" s="20"/>
       <c r="K213" s="20"/>
       <c r="L213" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M213" s="20"/>
       <c r="N213" s="20"/>
@@ -21010,11 +21027,11 @@
         <v>236</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D214" s="21"/>
       <c r="E214" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F214" s="20"/>
       <c r="G214" s="20"/>
@@ -21028,7 +21045,7 @@
       <c r="O214" s="20"/>
       <c r="P214" s="20"/>
       <c r="Q214" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R214" s="20"/>
       <c r="S214" s="20"/>
@@ -21092,13 +21109,13 @@
         <v>1</v>
       </c>
       <c r="E216" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H216" s="20"/>
       <c r="I216" s="20"/>
@@ -21107,29 +21124,29 @@
       <c r="L216" s="20"/>
       <c r="M216" s="20"/>
       <c r="N216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O216" s="20"/>
       <c r="P216" s="20"/>
       <c r="Q216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V216" s="20"/>
       <c r="W216" s="20"/>
       <c r="X216" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y216" s="20">
         <v>6.5</v>
@@ -21158,14 +21175,14 @@
       <c r="U217" s="20"/>
       <c r="V217" s="20"/>
       <c r="W217" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X217" s="20"/>
       <c r="Y217" s="20">
         <v>39</v>
       </c>
       <c r="Z217" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA217" s="24">
         <v>0.72916666666666663</v>
@@ -21267,14 +21284,14 @@
       <c r="U220" s="20"/>
       <c r="V220" s="20"/>
       <c r="W220" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X220" s="20"/>
       <c r="Y220" s="20">
         <v>3</v>
       </c>
       <c r="Z220" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA220" s="24">
         <v>0.90625</v>
@@ -21327,7 +21344,7 @@
         <v>242</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
@@ -21384,7 +21401,7 @@
       <c r="O223" s="20"/>
       <c r="P223" s="20"/>
       <c r="Q223" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R223" s="20">
         <v>1</v>
@@ -21412,10 +21429,10 @@
         <v>11</v>
       </c>
       <c r="E224" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20"/>
@@ -21423,7 +21440,7 @@
       <c r="J224" s="20"/>
       <c r="K224" s="20"/>
       <c r="L224" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M224" s="20"/>
       <c r="N224" s="20"/>
@@ -21463,7 +21480,7 @@
       <c r="J225" s="20"/>
       <c r="K225" s="20"/>
       <c r="L225" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M225" s="20"/>
       <c r="N225" s="20"/>
@@ -21600,17 +21617,17 @@
         <v>8</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H228" s="20"/>
       <c r="I228" s="20"/>
       <c r="J228" s="20"/>
       <c r="K228" s="20"/>
       <c r="L228" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M228" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N228" s="20"/>
       <c r="O228" s="20"/>
@@ -21618,11 +21635,11 @@
       <c r="Q228" s="20"/>
       <c r="R228" s="20"/>
       <c r="S228" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T228" s="20"/>
       <c r="U228" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V228" s="20"/>
       <c r="W228" s="20"/>
@@ -21732,12 +21749,12 @@
         <v>8</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H231" s="20"/>
       <c r="I231" s="20"/>
       <c r="J231" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K231" s="20"/>
       <c r="L231" s="20"/>
@@ -21811,7 +21828,7 @@
         <v>11</v>
       </c>
       <c r="T232" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U232" s="20">
         <v>0</v>
@@ -21829,7 +21846,7 @@
         <v>242</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
@@ -21928,10 +21945,10 @@
       <c r="K235" s="20"/>
       <c r="L235" s="20"/>
       <c r="M235" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N235" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O235" s="20"/>
       <c r="P235" s="20"/>
@@ -21965,7 +21982,7 @@
       <c r="H236" s="20"/>
       <c r="I236" s="20"/>
       <c r="J236" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K236" s="20"/>
       <c r="L236" s="20"/>
@@ -21978,7 +21995,7 @@
       </c>
       <c r="R236" s="20"/>
       <c r="S236" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T236" s="20"/>
       <c r="U236" s="20"/>
@@ -22013,14 +22030,14 @@
       <c r="U237" s="20"/>
       <c r="V237" s="20"/>
       <c r="W237" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X237" s="20"/>
       <c r="Y237" s="20">
         <v>74.5</v>
       </c>
       <c r="Z237" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA237" s="24">
         <v>0.708984375</v>
@@ -22082,14 +22099,14 @@
       <c r="U239" s="20"/>
       <c r="V239" s="20"/>
       <c r="W239" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X239" s="20"/>
       <c r="Y239" s="20">
         <v>0</v>
       </c>
       <c r="Z239" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA239" s="24">
         <v>1</v>
@@ -22358,7 +22375,7 @@
         <v>259</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
@@ -22432,7 +22449,7 @@
       <c r="V247" s="20"/>
       <c r="W247" s="20"/>
       <c r="X247" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y247" s="20">
         <v>7.5</v>
@@ -22597,14 +22614,14 @@
       <c r="U251" s="20"/>
       <c r="V251" s="20"/>
       <c r="W251" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X251" s="20"/>
       <c r="Y251" s="20">
         <v>52.5</v>
       </c>
       <c r="Z251" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA251" s="24">
         <v>0.70170454545454541</v>
@@ -22712,7 +22729,7 @@
       </c>
       <c r="L254" s="20"/>
       <c r="M254" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N254" s="20"/>
       <c r="O254" s="20"/>
@@ -22752,14 +22769,14 @@
       <c r="U255" s="20"/>
       <c r="V255" s="20"/>
       <c r="W255" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X255" s="22"/>
       <c r="Y255" s="20">
         <v>8.5</v>
       </c>
       <c r="Z255" s="7" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AA255" s="24">
         <v>0.82291666666666663</v>
@@ -22797,237 +22814,237 @@
       <c r="AA256" s="31"/>
     </row>
     <row r="257" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="63" t="s">
+      <c r="A257" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="62"/>
-      <c r="C257" s="62"/>
-      <c r="D257" s="62"/>
-      <c r="E257" s="62"/>
-      <c r="F257" s="62"/>
-      <c r="G257" s="62"/>
-      <c r="H257" s="62"/>
-      <c r="I257" s="62"/>
-      <c r="J257" s="62"/>
-      <c r="K257" s="62"/>
-      <c r="L257" s="62"/>
-      <c r="M257" s="62"/>
-      <c r="N257" s="62"/>
-      <c r="O257" s="62"/>
-      <c r="P257" s="62"/>
-      <c r="Q257" s="62"/>
-      <c r="R257" s="62"/>
-      <c r="S257" s="62"/>
-      <c r="T257" s="62"/>
-      <c r="U257" s="62"/>
-      <c r="V257" s="62"/>
-      <c r="W257" s="62"/>
-      <c r="X257" s="62"/>
-      <c r="Y257" s="62"/>
-      <c r="Z257" s="62"/>
-      <c r="AA257" s="62"/>
+      <c r="B257" s="63"/>
+      <c r="C257" s="63"/>
+      <c r="D257" s="63"/>
+      <c r="E257" s="63"/>
+      <c r="F257" s="63"/>
+      <c r="G257" s="63"/>
+      <c r="H257" s="63"/>
+      <c r="I257" s="63"/>
+      <c r="J257" s="63"/>
+      <c r="K257" s="63"/>
+      <c r="L257" s="63"/>
+      <c r="M257" s="63"/>
+      <c r="N257" s="63"/>
+      <c r="O257" s="63"/>
+      <c r="P257" s="63"/>
+      <c r="Q257" s="63"/>
+      <c r="R257" s="63"/>
+      <c r="S257" s="63"/>
+      <c r="T257" s="63"/>
+      <c r="U257" s="63"/>
+      <c r="V257" s="63"/>
+      <c r="W257" s="63"/>
+      <c r="X257" s="63"/>
+      <c r="Y257" s="63"/>
+      <c r="Z257" s="63"/>
+      <c r="AA257" s="63"/>
     </row>
     <row r="258" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="64"/>
-      <c r="B258" s="62"/>
-      <c r="C258" s="62"/>
-      <c r="D258" s="62"/>
-      <c r="E258" s="62"/>
-      <c r="F258" s="62"/>
-      <c r="G258" s="62"/>
-      <c r="H258" s="62"/>
-      <c r="I258" s="62"/>
-      <c r="J258" s="62"/>
-      <c r="K258" s="62"/>
-      <c r="L258" s="62"/>
-      <c r="M258" s="62"/>
-      <c r="N258" s="62"/>
-      <c r="O258" s="62"/>
-      <c r="P258" s="62"/>
-      <c r="Q258" s="62"/>
-      <c r="R258" s="62"/>
-      <c r="S258" s="62"/>
-      <c r="T258" s="62"/>
-      <c r="U258" s="62"/>
-      <c r="V258" s="62"/>
-      <c r="W258" s="62"/>
-      <c r="X258" s="62"/>
-      <c r="Y258" s="62"/>
-      <c r="Z258" s="62"/>
-      <c r="AA258" s="62"/>
+      <c r="A258" s="68"/>
+      <c r="B258" s="63"/>
+      <c r="C258" s="63"/>
+      <c r="D258" s="63"/>
+      <c r="E258" s="63"/>
+      <c r="F258" s="63"/>
+      <c r="G258" s="63"/>
+      <c r="H258" s="63"/>
+      <c r="I258" s="63"/>
+      <c r="J258" s="63"/>
+      <c r="K258" s="63"/>
+      <c r="L258" s="63"/>
+      <c r="M258" s="63"/>
+      <c r="N258" s="63"/>
+      <c r="O258" s="63"/>
+      <c r="P258" s="63"/>
+      <c r="Q258" s="63"/>
+      <c r="R258" s="63"/>
+      <c r="S258" s="63"/>
+      <c r="T258" s="63"/>
+      <c r="U258" s="63"/>
+      <c r="V258" s="63"/>
+      <c r="W258" s="63"/>
+      <c r="X258" s="63"/>
+      <c r="Y258" s="63"/>
+      <c r="Z258" s="63"/>
+      <c r="AA258" s="63"/>
     </row>
     <row r="259" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="64"/>
-      <c r="B259" s="62"/>
-      <c r="C259" s="62"/>
-      <c r="D259" s="62"/>
-      <c r="E259" s="62"/>
-      <c r="F259" s="62"/>
-      <c r="G259" s="62"/>
-      <c r="H259" s="62"/>
-      <c r="I259" s="62"/>
-      <c r="J259" s="62"/>
-      <c r="K259" s="62"/>
-      <c r="L259" s="62"/>
-      <c r="M259" s="62"/>
-      <c r="N259" s="62"/>
-      <c r="O259" s="62"/>
-      <c r="P259" s="62"/>
-      <c r="Q259" s="62"/>
-      <c r="R259" s="62"/>
-      <c r="S259" s="62"/>
-      <c r="T259" s="62"/>
-      <c r="U259" s="62"/>
-      <c r="V259" s="62"/>
-      <c r="W259" s="62"/>
-      <c r="X259" s="62"/>
-      <c r="Y259" s="62"/>
-      <c r="Z259" s="62"/>
-      <c r="AA259" s="62"/>
+      <c r="A259" s="68"/>
+      <c r="B259" s="63"/>
+      <c r="C259" s="63"/>
+      <c r="D259" s="63"/>
+      <c r="E259" s="63"/>
+      <c r="F259" s="63"/>
+      <c r="G259" s="63"/>
+      <c r="H259" s="63"/>
+      <c r="I259" s="63"/>
+      <c r="J259" s="63"/>
+      <c r="K259" s="63"/>
+      <c r="L259" s="63"/>
+      <c r="M259" s="63"/>
+      <c r="N259" s="63"/>
+      <c r="O259" s="63"/>
+      <c r="P259" s="63"/>
+      <c r="Q259" s="63"/>
+      <c r="R259" s="63"/>
+      <c r="S259" s="63"/>
+      <c r="T259" s="63"/>
+      <c r="U259" s="63"/>
+      <c r="V259" s="63"/>
+      <c r="W259" s="63"/>
+      <c r="X259" s="63"/>
+      <c r="Y259" s="63"/>
+      <c r="Z259" s="63"/>
+      <c r="AA259" s="63"/>
     </row>
     <row r="260" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="65"/>
-      <c r="B260" s="70" t="s">
+      <c r="A260" s="69"/>
+      <c r="B260" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C260" s="65"/>
+      <c r="D260" s="65"/>
+      <c r="E260" s="65"/>
+      <c r="F260" s="65"/>
+      <c r="G260" s="65"/>
+      <c r="H260" s="65"/>
+      <c r="I260" s="65"/>
+      <c r="J260" s="65"/>
+      <c r="K260" s="65"/>
+      <c r="L260" s="65"/>
+      <c r="M260" s="65"/>
+      <c r="N260" s="65"/>
+      <c r="O260" s="65"/>
+      <c r="P260" s="65"/>
+      <c r="Q260" s="65"/>
+      <c r="R260" s="65"/>
+      <c r="S260" s="65"/>
+      <c r="T260" s="65"/>
+      <c r="U260" s="65"/>
+      <c r="V260" s="65"/>
+      <c r="W260" s="65"/>
+      <c r="X260" s="65"/>
+      <c r="Y260" s="65"/>
+      <c r="Z260" s="65"/>
+      <c r="AA260" s="66"/>
+    </row>
+    <row r="261" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B261" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="C260" s="68"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="68"/>
-      <c r="F260" s="68"/>
-      <c r="G260" s="68"/>
-      <c r="H260" s="68"/>
-      <c r="I260" s="68"/>
-      <c r="J260" s="68"/>
-      <c r="K260" s="68"/>
-      <c r="L260" s="68"/>
-      <c r="M260" s="68"/>
-      <c r="N260" s="68"/>
-      <c r="O260" s="68"/>
-      <c r="P260" s="68"/>
-      <c r="Q260" s="68"/>
-      <c r="R260" s="68"/>
-      <c r="S260" s="68"/>
-      <c r="T260" s="68"/>
-      <c r="U260" s="68"/>
-      <c r="V260" s="68"/>
-      <c r="W260" s="68"/>
-      <c r="X260" s="68"/>
-      <c r="Y260" s="68"/>
-      <c r="Z260" s="68"/>
-      <c r="AA260" s="69"/>
-    </row>
-    <row r="261" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="B261" s="62" t="s">
+      <c r="C261" s="63"/>
+      <c r="D261" s="63"/>
+      <c r="E261" s="63"/>
+      <c r="F261" s="63"/>
+      <c r="G261" s="63"/>
+      <c r="H261" s="63"/>
+      <c r="I261" s="63"/>
+      <c r="J261" s="63"/>
+      <c r="K261" s="63"/>
+      <c r="L261" s="63"/>
+      <c r="M261" s="63"/>
+      <c r="N261" s="63"/>
+      <c r="O261" s="63"/>
+      <c r="P261" s="63"/>
+      <c r="Q261" s="63"/>
+      <c r="R261" s="63"/>
+      <c r="S261" s="63"/>
+      <c r="T261" s="63"/>
+      <c r="U261" s="63"/>
+      <c r="V261" s="63"/>
+      <c r="W261" s="63"/>
+      <c r="X261" s="63"/>
+      <c r="Y261" s="63"/>
+      <c r="Z261" s="63"/>
+      <c r="AA261" s="63"/>
+    </row>
+    <row r="262" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="70"/>
+      <c r="B262" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="C261" s="62"/>
-      <c r="D261" s="62"/>
-      <c r="E261" s="62"/>
-      <c r="F261" s="62"/>
-      <c r="G261" s="62"/>
-      <c r="H261" s="62"/>
-      <c r="I261" s="62"/>
-      <c r="J261" s="62"/>
-      <c r="K261" s="62"/>
-      <c r="L261" s="62"/>
-      <c r="M261" s="62"/>
-      <c r="N261" s="62"/>
-      <c r="O261" s="62"/>
-      <c r="P261" s="62"/>
-      <c r="Q261" s="62"/>
-      <c r="R261" s="62"/>
-      <c r="S261" s="62"/>
-      <c r="T261" s="62"/>
-      <c r="U261" s="62"/>
-      <c r="V261" s="62"/>
-      <c r="W261" s="62"/>
-      <c r="X261" s="62"/>
-      <c r="Y261" s="62"/>
-      <c r="Z261" s="62"/>
-      <c r="AA261" s="62"/>
-    </row>
-    <row r="262" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="66"/>
-      <c r="B262" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="C262" s="62"/>
-      <c r="D262" s="62"/>
-      <c r="E262" s="62"/>
-      <c r="F262" s="62"/>
-      <c r="G262" s="62"/>
-      <c r="H262" s="62"/>
-      <c r="I262" s="62"/>
-      <c r="J262" s="62"/>
-      <c r="K262" s="62"/>
-      <c r="L262" s="62"/>
-      <c r="M262" s="62"/>
-      <c r="N262" s="62"/>
-      <c r="O262" s="62"/>
-      <c r="P262" s="62"/>
-      <c r="Q262" s="62"/>
-      <c r="R262" s="62"/>
-      <c r="S262" s="62"/>
-      <c r="T262" s="62"/>
-      <c r="U262" s="62"/>
-      <c r="V262" s="62"/>
-      <c r="W262" s="62"/>
-      <c r="X262" s="62"/>
-      <c r="Y262" s="62"/>
-      <c r="Z262" s="62"/>
-      <c r="AA262" s="62"/>
+      <c r="C262" s="63"/>
+      <c r="D262" s="63"/>
+      <c r="E262" s="63"/>
+      <c r="F262" s="63"/>
+      <c r="G262" s="63"/>
+      <c r="H262" s="63"/>
+      <c r="I262" s="63"/>
+      <c r="J262" s="63"/>
+      <c r="K262" s="63"/>
+      <c r="L262" s="63"/>
+      <c r="M262" s="63"/>
+      <c r="N262" s="63"/>
+      <c r="O262" s="63"/>
+      <c r="P262" s="63"/>
+      <c r="Q262" s="63"/>
+      <c r="R262" s="63"/>
+      <c r="S262" s="63"/>
+      <c r="T262" s="63"/>
+      <c r="U262" s="63"/>
+      <c r="V262" s="63"/>
+      <c r="W262" s="63"/>
+      <c r="X262" s="63"/>
+      <c r="Y262" s="63"/>
+      <c r="Z262" s="63"/>
+      <c r="AA262" s="63"/>
     </row>
     <row r="263" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="B263" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="C263" s="62"/>
-      <c r="D263" s="62"/>
-      <c r="E263" s="62"/>
-      <c r="F263" s="62"/>
-      <c r="G263" s="62"/>
-      <c r="H263" s="62"/>
-      <c r="I263" s="62"/>
-      <c r="J263" s="62"/>
-      <c r="K263" s="62"/>
-      <c r="L263" s="62"/>
-      <c r="M263" s="62"/>
-      <c r="N263" s="62"/>
-      <c r="O263" s="62"/>
-      <c r="P263" s="62"/>
-      <c r="Q263" s="62"/>
-      <c r="R263" s="62"/>
-      <c r="S263" s="62"/>
-      <c r="T263" s="62"/>
-      <c r="U263" s="62"/>
-      <c r="V263" s="62"/>
-      <c r="W263" s="62"/>
-      <c r="X263" s="62"/>
-      <c r="Y263" s="62"/>
-      <c r="Z263" s="62"/>
-      <c r="AA263" s="62"/>
+      <c r="B263" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="C263" s="63"/>
+      <c r="D263" s="63"/>
+      <c r="E263" s="63"/>
+      <c r="F263" s="63"/>
+      <c r="G263" s="63"/>
+      <c r="H263" s="63"/>
+      <c r="I263" s="63"/>
+      <c r="J263" s="63"/>
+      <c r="K263" s="63"/>
+      <c r="L263" s="63"/>
+      <c r="M263" s="63"/>
+      <c r="N263" s="63"/>
+      <c r="O263" s="63"/>
+      <c r="P263" s="63"/>
+      <c r="Q263" s="63"/>
+      <c r="R263" s="63"/>
+      <c r="S263" s="63"/>
+      <c r="T263" s="63"/>
+      <c r="U263" s="63"/>
+      <c r="V263" s="63"/>
+      <c r="W263" s="63"/>
+      <c r="X263" s="63"/>
+      <c r="Y263" s="63"/>
+      <c r="Z263" s="63"/>
+      <c r="AA263" s="63"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA249">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B261:AA261"/>
+    <mergeCell ref="B262:AA262"/>
+    <mergeCell ref="B263:AA263"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A262"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B257:AA257"/>
     <mergeCell ref="B258:AA258"/>
     <mergeCell ref="B259:AA259"/>
     <mergeCell ref="B260:AA260"/>
-    <mergeCell ref="B261:AA261"/>
-    <mergeCell ref="B262:AA262"/>
-    <mergeCell ref="B263:AA263"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A262"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.70833333333333304" top="1" bottom="1" header="0.74791666666666701" footer="0.5"/>
@@ -23143,7 +23160,7 @@
         <v>31</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
@@ -23903,7 +23920,7 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC19" s="7"/>
       <c r="AD19" s="11">
@@ -23980,7 +23997,7 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="11">
@@ -24059,7 +24076,7 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="11">
@@ -24191,7 +24208,7 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC26" s="9"/>
       <c r="AD26" s="11">

--- a/autoChectWork/2月份考勤汇总表.xlsx
+++ b/autoChectWork/2月份考勤汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\autoChectWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7F13F-7740-4FAD-BEF1-611F1687D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A78823-5F0A-453F-93CC-024E0C54A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1905" windowWidth="25875" windowHeight="12345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="315">
   <si>
     <t>2021 年 11 月 份 考 勤 汇 总 表</t>
   </si>
@@ -1006,6 +1006,15 @@
     <t>2022年2月份考勤情况汇总表，原本有问题</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>残联:100.00%、应急管理局:100.00%。</t>
+  </si>
+  <si>
+    <t>司法局:96.88%。</t>
+  </si>
+  <si>
+    <t>发改委:0.00%、水利局:0.00%、民政局:56.92%、环保局:64.06%、公安出入境:65.62%、住建局:70.17%、环城户籍:70.83%、医保中心:70.90%、卫健局:72.92%、教体局:74.55%、交通局运管局:74.58%、农业局:77.60%、税务局:77.99%、不动产:78.31%、市场监管局:81.70%、自然资源局:82.29%、人社局:82.41%、商务局:87.50%、城管局:89.06%。</t>
+  </si>
 </sst>
 </file>
 
@@ -1423,16 +1432,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1447,8 +1447,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1460,21 +1484,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1780,39 +1789,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
     </row>
     <row r="2" spans="1:31" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
@@ -1891,10 +1900,10 @@
       <c r="AB2" s="35">
         <v>30</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="57"/>
+      <c r="AD2" s="54"/>
       <c r="AE2" s="36"/>
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2673,10 +2682,10 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
-      <c r="AA20" s="53" t="s">
+      <c r="AA20" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB20" s="53"/>
+      <c r="AB20" s="55"/>
       <c r="AC20" s="6">
         <f>SUM(AC3:AC19)</f>
         <v>28</v>
@@ -2751,10 +2760,10 @@
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="25"/>
-      <c r="AA22" s="53" t="s">
+      <c r="AA22" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB22" s="53"/>
+      <c r="AB22" s="55"/>
       <c r="AC22" s="6">
         <v>2</v>
       </c>
@@ -2826,10 +2835,10 @@
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="53" t="s">
+      <c r="AA24" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB24" s="53"/>
+      <c r="AB24" s="55"/>
       <c r="AC24" s="6">
         <v>1</v>
       </c>
@@ -2944,10 +2953,10 @@
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="53" t="s">
+      <c r="AA27" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB27" s="53"/>
+      <c r="AB27" s="55"/>
       <c r="AC27" s="6">
         <v>6</v>
       </c>
@@ -3019,10 +3028,10 @@
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
       <c r="Z29" s="25"/>
-      <c r="AA29" s="53" t="s">
+      <c r="AA29" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB29" s="53"/>
+      <c r="AB29" s="55"/>
       <c r="AC29" s="6">
         <v>1</v>
       </c>
@@ -3092,10 +3101,10 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
-      <c r="AA31" s="53" t="s">
+      <c r="AA31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB31" s="53"/>
+      <c r="AB31" s="55"/>
       <c r="AC31" s="6">
         <v>0</v>
       </c>
@@ -3272,10 +3281,10 @@
       <c r="X36" s="25"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
-      <c r="AA36" s="53" t="s">
+      <c r="AA36" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB36" s="53"/>
+      <c r="AB36" s="55"/>
       <c r="AC36" s="6">
         <v>1</v>
       </c>
@@ -3351,10 +3360,10 @@
       <c r="X38" s="25"/>
       <c r="Y38" s="25"/>
       <c r="Z38" s="25"/>
-      <c r="AA38" s="53" t="s">
+      <c r="AA38" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB38" s="53"/>
+      <c r="AB38" s="55"/>
       <c r="AC38" s="6">
         <v>3</v>
       </c>
@@ -3424,10 +3433,10 @@
       <c r="X40" s="25"/>
       <c r="Y40" s="25"/>
       <c r="Z40" s="25"/>
-      <c r="AA40" s="53" t="s">
+      <c r="AA40" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB40" s="53"/>
+      <c r="AB40" s="55"/>
       <c r="AC40" s="6">
         <v>0</v>
       </c>
@@ -3501,10 +3510,10 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
-      <c r="AA42" s="53" t="s">
+      <c r="AA42" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB42" s="53"/>
+      <c r="AB42" s="55"/>
       <c r="AC42" s="6">
         <v>2</v>
       </c>
@@ -3659,10 +3668,10 @@
       <c r="X46" s="25"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
-      <c r="AA46" s="53" t="s">
+      <c r="AA46" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB46" s="53"/>
+      <c r="AB46" s="55"/>
       <c r="AC46" s="6">
         <v>4</v>
       </c>
@@ -3829,10 +3838,10 @@
       <c r="X50" s="25"/>
       <c r="Y50" s="25"/>
       <c r="Z50" s="25"/>
-      <c r="AA50" s="53" t="s">
+      <c r="AA50" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB50" s="53"/>
+      <c r="AB50" s="55"/>
       <c r="AC50" s="6">
         <v>11</v>
       </c>
@@ -4392,10 +4401,10 @@
       <c r="X66" s="25"/>
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
-      <c r="AA66" s="53" t="s">
+      <c r="AA66" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB66" s="53"/>
+      <c r="AB66" s="55"/>
       <c r="AC66" s="6">
         <v>8</v>
       </c>
@@ -5032,10 +5041,10 @@
       <c r="X82" s="25"/>
       <c r="Y82" s="25"/>
       <c r="Z82" s="25"/>
-      <c r="AA82" s="53" t="s">
+      <c r="AA82" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB82" s="53"/>
+      <c r="AB82" s="55"/>
       <c r="AC82" s="6">
         <f>SUM(AC67:AC81)</f>
         <v>25</v>
@@ -5335,10 +5344,10 @@
       <c r="X90" s="25"/>
       <c r="Y90" s="25"/>
       <c r="Z90" s="25"/>
-      <c r="AA90" s="53" t="s">
+      <c r="AA90" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB90" s="53"/>
+      <c r="AB90" s="55"/>
       <c r="AC90" s="6">
         <v>4</v>
       </c>
@@ -5481,10 +5490,10 @@
       <c r="X94" s="25"/>
       <c r="Y94" s="25"/>
       <c r="Z94" s="25"/>
-      <c r="AA94" s="53" t="s">
+      <c r="AA94" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB94" s="53"/>
+      <c r="AB94" s="55"/>
       <c r="AC94" s="6">
         <v>2</v>
       </c>
@@ -6113,10 +6122,10 @@
       <c r="X109" s="25"/>
       <c r="Y109" s="25"/>
       <c r="Z109" s="25"/>
-      <c r="AA109" s="53" t="s">
+      <c r="AA109" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB109" s="53"/>
+      <c r="AB109" s="55"/>
       <c r="AC109" s="6">
         <f>SUM(AC95:AC108)</f>
         <v>37</v>
@@ -6382,10 +6391,10 @@
       <c r="X116" s="25"/>
       <c r="Y116" s="25"/>
       <c r="Z116" s="25"/>
-      <c r="AA116" s="53" t="s">
+      <c r="AA116" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB116" s="53"/>
+      <c r="AB116" s="55"/>
       <c r="AC116" s="6">
         <v>9</v>
       </c>
@@ -8507,10 +8516,10 @@
       <c r="X167" s="25"/>
       <c r="Y167" s="25"/>
       <c r="Z167" s="25"/>
-      <c r="AA167" s="53" t="s">
+      <c r="AA167" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB167" s="53"/>
+      <c r="AB167" s="55"/>
       <c r="AC167" s="6">
         <f>SUM(AC117:AC166)</f>
         <v>132</v>
@@ -8963,10 +8972,10 @@
       <c r="X179" s="25"/>
       <c r="Y179" s="25"/>
       <c r="Z179" s="25"/>
-      <c r="AA179" s="53" t="s">
+      <c r="AA179" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB179" s="53"/>
+      <c r="AB179" s="55"/>
       <c r="AC179" s="6">
         <v>15</v>
       </c>
@@ -9839,10 +9848,10 @@
       <c r="X203" s="25"/>
       <c r="Y203" s="25"/>
       <c r="Z203" s="25"/>
-      <c r="AA203" s="53" t="s">
+      <c r="AA203" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB203" s="53"/>
+      <c r="AB203" s="55"/>
       <c r="AC203" s="6">
         <f>SUM(AC180:AC202)</f>
         <v>22</v>
@@ -9952,10 +9961,10 @@
       <c r="X206" s="25"/>
       <c r="Y206" s="25"/>
       <c r="Z206" s="25"/>
-      <c r="AA206" s="53" t="s">
+      <c r="AA206" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB206" s="53"/>
+      <c r="AB206" s="55"/>
       <c r="AC206" s="6">
         <v>3</v>
       </c>
@@ -10326,10 +10335,10 @@
       <c r="X216" s="25"/>
       <c r="Y216" s="25"/>
       <c r="Z216" s="25"/>
-      <c r="AA216" s="53" t="s">
+      <c r="AA216" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB216" s="53"/>
+      <c r="AB216" s="55"/>
       <c r="AC216" s="6">
         <v>11</v>
       </c>
@@ -10422,36 +10431,36 @@
       <c r="AE218" s="3"/>
     </row>
     <row r="219" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="52"/>
-      <c r="B219" s="52"/>
-      <c r="C219" s="52"/>
-      <c r="D219" s="52"/>
-      <c r="E219" s="52"/>
-      <c r="F219" s="52"/>
-      <c r="G219" s="52"/>
-      <c r="H219" s="52"/>
-      <c r="I219" s="52"/>
-      <c r="J219" s="52"/>
-      <c r="K219" s="52"/>
-      <c r="L219" s="52"/>
-      <c r="M219" s="52"/>
-      <c r="N219" s="52"/>
-      <c r="O219" s="52"/>
-      <c r="P219" s="52"/>
-      <c r="Q219" s="52"/>
-      <c r="R219" s="52"/>
-      <c r="S219" s="52"/>
-      <c r="T219" s="52"/>
-      <c r="U219" s="52"/>
-      <c r="V219" s="52"/>
-      <c r="W219" s="52"/>
-      <c r="X219" s="52"/>
-      <c r="Y219" s="52"/>
+      <c r="A219" s="56"/>
+      <c r="B219" s="56"/>
+      <c r="C219" s="56"/>
+      <c r="D219" s="56"/>
+      <c r="E219" s="56"/>
+      <c r="F219" s="56"/>
+      <c r="G219" s="56"/>
+      <c r="H219" s="56"/>
+      <c r="I219" s="56"/>
+      <c r="J219" s="56"/>
+      <c r="K219" s="56"/>
+      <c r="L219" s="56"/>
+      <c r="M219" s="56"/>
+      <c r="N219" s="56"/>
+      <c r="O219" s="56"/>
+      <c r="P219" s="56"/>
+      <c r="Q219" s="56"/>
+      <c r="R219" s="56"/>
+      <c r="S219" s="56"/>
+      <c r="T219" s="56"/>
+      <c r="U219" s="56"/>
+      <c r="V219" s="56"/>
+      <c r="W219" s="56"/>
+      <c r="X219" s="56"/>
+      <c r="Y219" s="56"/>
       <c r="Z219" s="25"/>
-      <c r="AA219" s="53" t="s">
+      <c r="AA219" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB219" s="53"/>
+      <c r="AB219" s="55"/>
       <c r="AC219" s="6">
         <v>4</v>
       </c>
@@ -11171,10 +11180,10 @@
       <c r="X236" s="25"/>
       <c r="Y236" s="25"/>
       <c r="Z236" s="25"/>
-      <c r="AA236" s="53" t="s">
+      <c r="AA236" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB236" s="53"/>
+      <c r="AB236" s="55"/>
       <c r="AC236" s="6">
         <f>SUM(AC220:AC235)</f>
         <v>46</v>
@@ -11619,10 +11628,10 @@
       <c r="X247" s="25"/>
       <c r="Y247" s="25"/>
       <c r="Z247" s="25"/>
-      <c r="AA247" s="53" t="s">
+      <c r="AA247" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB247" s="53"/>
+      <c r="AB247" s="55"/>
       <c r="AC247" s="6">
         <f>SUM(AC238:AC246)</f>
         <v>23</v>
@@ -11777,10 +11786,10 @@
       <c r="X251" s="25"/>
       <c r="Y251" s="25"/>
       <c r="Z251" s="25"/>
-      <c r="AA251" s="53" t="s">
+      <c r="AA251" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AB251" s="53"/>
+      <c r="AB251" s="55"/>
       <c r="AC251" s="6">
         <v>3</v>
       </c>
@@ -11812,151 +11821,151 @@
       <c r="A254" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B254" s="50" t="s">
+      <c r="B254" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C254" s="50"/>
-      <c r="D254" s="50"/>
-      <c r="E254" s="50"/>
-      <c r="F254" s="50"/>
-      <c r="G254" s="50"/>
-      <c r="H254" s="50"/>
-      <c r="I254" s="50"/>
-      <c r="J254" s="50"/>
-      <c r="K254" s="50"/>
-      <c r="L254" s="50"/>
-      <c r="M254" s="50"/>
-      <c r="N254" s="50"/>
-      <c r="O254" s="50"/>
-      <c r="P254" s="50"/>
-      <c r="Q254" s="50"/>
-      <c r="R254" s="50"/>
-      <c r="S254" s="50"/>
-      <c r="T254" s="50"/>
-      <c r="U254" s="50"/>
-      <c r="V254" s="50"/>
-      <c r="W254" s="50"/>
-      <c r="X254" s="50"/>
-      <c r="Y254" s="50"/>
-      <c r="Z254" s="50"/>
-      <c r="AA254" s="50"/>
-      <c r="AB254" s="50"/>
-      <c r="AC254" s="50"/>
-      <c r="AD254" s="50"/>
-      <c r="AE254" s="50"/>
-      <c r="AF254" s="50"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="57"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="57"/>
+      <c r="H254" s="57"/>
+      <c r="I254" s="57"/>
+      <c r="J254" s="57"/>
+      <c r="K254" s="57"/>
+      <c r="L254" s="57"/>
+      <c r="M254" s="57"/>
+      <c r="N254" s="57"/>
+      <c r="O254" s="57"/>
+      <c r="P254" s="57"/>
+      <c r="Q254" s="57"/>
+      <c r="R254" s="57"/>
+      <c r="S254" s="57"/>
+      <c r="T254" s="57"/>
+      <c r="U254" s="57"/>
+      <c r="V254" s="57"/>
+      <c r="W254" s="57"/>
+      <c r="X254" s="57"/>
+      <c r="Y254" s="57"/>
+      <c r="Z254" s="57"/>
+      <c r="AA254" s="57"/>
+      <c r="AB254" s="57"/>
+      <c r="AC254" s="57"/>
+      <c r="AD254" s="57"/>
+      <c r="AE254" s="57"/>
+      <c r="AF254" s="57"/>
     </row>
     <row r="255" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="51" t="s">
+      <c r="A255" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B255" s="50" t="s">
+      <c r="B255" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="C255" s="50"/>
-      <c r="D255" s="50"/>
-      <c r="E255" s="50"/>
-      <c r="F255" s="50"/>
-      <c r="G255" s="50"/>
-      <c r="H255" s="50"/>
-      <c r="I255" s="50"/>
-      <c r="J255" s="50"/>
-      <c r="K255" s="50"/>
-      <c r="L255" s="50"/>
-      <c r="M255" s="50"/>
-      <c r="N255" s="50"/>
-      <c r="O255" s="50"/>
-      <c r="P255" s="50"/>
-      <c r="Q255" s="50"/>
-      <c r="R255" s="50"/>
-      <c r="S255" s="50"/>
-      <c r="T255" s="50"/>
-      <c r="U255" s="50"/>
-      <c r="V255" s="50"/>
-      <c r="W255" s="50"/>
-      <c r="X255" s="50"/>
-      <c r="Y255" s="50"/>
-      <c r="Z255" s="50"/>
-      <c r="AA255" s="50"/>
-      <c r="AB255" s="50"/>
-      <c r="AC255" s="50"/>
-      <c r="AD255" s="50"/>
-      <c r="AE255" s="50"/>
-      <c r="AF255" s="50"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="57"/>
+      <c r="E255" s="57"/>
+      <c r="F255" s="57"/>
+      <c r="G255" s="57"/>
+      <c r="H255" s="57"/>
+      <c r="I255" s="57"/>
+      <c r="J255" s="57"/>
+      <c r="K255" s="57"/>
+      <c r="L255" s="57"/>
+      <c r="M255" s="57"/>
+      <c r="N255" s="57"/>
+      <c r="O255" s="57"/>
+      <c r="P255" s="57"/>
+      <c r="Q255" s="57"/>
+      <c r="R255" s="57"/>
+      <c r="S255" s="57"/>
+      <c r="T255" s="57"/>
+      <c r="U255" s="57"/>
+      <c r="V255" s="57"/>
+      <c r="W255" s="57"/>
+      <c r="X255" s="57"/>
+      <c r="Y255" s="57"/>
+      <c r="Z255" s="57"/>
+      <c r="AA255" s="57"/>
+      <c r="AB255" s="57"/>
+      <c r="AC255" s="57"/>
+      <c r="AD255" s="57"/>
+      <c r="AE255" s="57"/>
+      <c r="AF255" s="57"/>
     </row>
     <row r="256" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="51"/>
-      <c r="B256" s="50" t="s">
+      <c r="A256" s="58"/>
+      <c r="B256" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C256" s="50"/>
-      <c r="D256" s="50"/>
-      <c r="E256" s="50"/>
-      <c r="F256" s="50"/>
-      <c r="G256" s="50"/>
-      <c r="H256" s="50"/>
-      <c r="I256" s="50"/>
-      <c r="J256" s="50"/>
-      <c r="K256" s="50"/>
-      <c r="L256" s="50"/>
-      <c r="M256" s="50"/>
-      <c r="N256" s="50"/>
-      <c r="O256" s="50"/>
-      <c r="P256" s="50"/>
-      <c r="Q256" s="50"/>
-      <c r="R256" s="50"/>
-      <c r="S256" s="50"/>
-      <c r="T256" s="50"/>
-      <c r="U256" s="50"/>
-      <c r="V256" s="50"/>
-      <c r="W256" s="50"/>
-      <c r="X256" s="50"/>
-      <c r="Y256" s="50"/>
-      <c r="Z256" s="50"/>
-      <c r="AA256" s="50"/>
-      <c r="AB256" s="50"/>
-      <c r="AC256" s="50"/>
-      <c r="AD256" s="50"/>
-      <c r="AE256" s="50"/>
-      <c r="AF256" s="50"/>
+      <c r="C256" s="57"/>
+      <c r="D256" s="57"/>
+      <c r="E256" s="57"/>
+      <c r="F256" s="57"/>
+      <c r="G256" s="57"/>
+      <c r="H256" s="57"/>
+      <c r="I256" s="57"/>
+      <c r="J256" s="57"/>
+      <c r="K256" s="57"/>
+      <c r="L256" s="57"/>
+      <c r="M256" s="57"/>
+      <c r="N256" s="57"/>
+      <c r="O256" s="57"/>
+      <c r="P256" s="57"/>
+      <c r="Q256" s="57"/>
+      <c r="R256" s="57"/>
+      <c r="S256" s="57"/>
+      <c r="T256" s="57"/>
+      <c r="U256" s="57"/>
+      <c r="V256" s="57"/>
+      <c r="W256" s="57"/>
+      <c r="X256" s="57"/>
+      <c r="Y256" s="57"/>
+      <c r="Z256" s="57"/>
+      <c r="AA256" s="57"/>
+      <c r="AB256" s="57"/>
+      <c r="AC256" s="57"/>
+      <c r="AD256" s="57"/>
+      <c r="AE256" s="57"/>
+      <c r="AF256" s="57"/>
     </row>
     <row r="257" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="B257" s="50" t="s">
+      <c r="B257" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C257" s="50"/>
-      <c r="D257" s="50"/>
-      <c r="E257" s="50"/>
-      <c r="F257" s="50"/>
-      <c r="G257" s="50"/>
-      <c r="H257" s="50"/>
-      <c r="I257" s="50"/>
-      <c r="J257" s="50"/>
-      <c r="K257" s="50"/>
-      <c r="L257" s="50"/>
-      <c r="M257" s="50"/>
-      <c r="N257" s="50"/>
-      <c r="O257" s="50"/>
-      <c r="P257" s="50"/>
-      <c r="Q257" s="50"/>
-      <c r="R257" s="50"/>
-      <c r="S257" s="50"/>
-      <c r="T257" s="50"/>
-      <c r="U257" s="50"/>
-      <c r="V257" s="50"/>
-      <c r="W257" s="50"/>
-      <c r="X257" s="50"/>
-      <c r="Y257" s="50"/>
-      <c r="Z257" s="50"/>
-      <c r="AA257" s="50"/>
-      <c r="AB257" s="50"/>
-      <c r="AC257" s="50"/>
-      <c r="AD257" s="50"/>
-      <c r="AE257" s="50"/>
-      <c r="AF257" s="50"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="57"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="57"/>
+      <c r="H257" s="57"/>
+      <c r="I257" s="57"/>
+      <c r="J257" s="57"/>
+      <c r="K257" s="57"/>
+      <c r="L257" s="57"/>
+      <c r="M257" s="57"/>
+      <c r="N257" s="57"/>
+      <c r="O257" s="57"/>
+      <c r="P257" s="57"/>
+      <c r="Q257" s="57"/>
+      <c r="R257" s="57"/>
+      <c r="S257" s="57"/>
+      <c r="T257" s="57"/>
+      <c r="U257" s="57"/>
+      <c r="V257" s="57"/>
+      <c r="W257" s="57"/>
+      <c r="X257" s="57"/>
+      <c r="Y257" s="57"/>
+      <c r="Z257" s="57"/>
+      <c r="AA257" s="57"/>
+      <c r="AB257" s="57"/>
+      <c r="AC257" s="57"/>
+      <c r="AD257" s="57"/>
+      <c r="AE257" s="57"/>
+      <c r="AF257" s="57"/>
     </row>
     <row r="258" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C258" s="28"/>
@@ -12113,41 +12122,41 @@
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="B254:AF254"/>
+    <mergeCell ref="B255:AF255"/>
+    <mergeCell ref="B256:AF256"/>
+    <mergeCell ref="B257:AF257"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="A219:Y219"/>
+    <mergeCell ref="AA219:AB219"/>
+    <mergeCell ref="AA236:AB236"/>
+    <mergeCell ref="AA247:AB247"/>
+    <mergeCell ref="AA251:AB251"/>
+    <mergeCell ref="AA167:AB167"/>
+    <mergeCell ref="AA179:AB179"/>
+    <mergeCell ref="AA203:AB203"/>
+    <mergeCell ref="AA206:AB206"/>
+    <mergeCell ref="AA216:AB216"/>
+    <mergeCell ref="AA82:AB82"/>
+    <mergeCell ref="AA90:AB90"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AA109:AB109"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA38:AB38"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AA20:AB20"/>
     <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AA82:AB82"/>
-    <mergeCell ref="AA90:AB90"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AA109:AB109"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AA167:AB167"/>
-    <mergeCell ref="AA179:AB179"/>
-    <mergeCell ref="AA203:AB203"/>
-    <mergeCell ref="AA206:AB206"/>
-    <mergeCell ref="AA216:AB216"/>
-    <mergeCell ref="A219:Y219"/>
-    <mergeCell ref="AA219:AB219"/>
-    <mergeCell ref="AA236:AB236"/>
-    <mergeCell ref="AA247:AB247"/>
-    <mergeCell ref="AA251:AB251"/>
-    <mergeCell ref="B254:AF254"/>
-    <mergeCell ref="B255:AF255"/>
-    <mergeCell ref="B256:AF256"/>
-    <mergeCell ref="B257:AF257"/>
-    <mergeCell ref="A255:A256"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12161,7 +12170,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B260" sqref="B260:AA263"/>
+      <selection pane="bottomLeft" activeCell="B261" sqref="B261:AA261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -12185,35 +12194,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
     </row>
     <row r="2" spans="1:27" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -13062,9 +13071,15 @@
         <v>300</v>
       </c>
       <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="18"/>
+      <c r="Y20" s="14">
+        <v>59</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>0.78308823529411764</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -13097,7 +13112,9 @@
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
+      <c r="Y21" s="14">
+        <v>1</v>
+      </c>
       <c r="AA21" s="18"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.15">
@@ -13125,8 +13142,15 @@
         <v>300</v>
       </c>
       <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="AA22" s="18"/>
+      <c r="Y22" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -13157,7 +13181,9 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
       <c r="AA23" s="18"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.15">
@@ -13185,8 +13211,15 @@
         <v>300</v>
       </c>
       <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="AA24" s="18"/>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -13225,7 +13258,9 @@
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
+      <c r="Y25" s="14">
+        <v>3.5</v>
+      </c>
       <c r="AA25" s="18"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.15">
@@ -13257,7 +13292,9 @@
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
+      <c r="Y26" s="14">
+        <v>0</v>
+      </c>
       <c r="AA26" s="18"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
@@ -13285,8 +13322,15 @@
         <v>300</v>
       </c>
       <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="AA27" s="18"/>
+      <c r="Y27" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>0.890625</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
@@ -13349,7 +13393,9 @@
       <c r="X28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Y28" s="14"/>
+      <c r="Y28" s="14">
+        <v>16</v>
+      </c>
       <c r="AA28" s="18"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
@@ -13377,8 +13423,15 @@
         <v>300</v>
       </c>
       <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="AA29" s="18"/>
+      <c r="Y29" s="14">
+        <v>16</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA29" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
@@ -22542,9 +22595,7 @@
       <c r="X250" s="14">
         <v>1</v>
       </c>
-      <c r="Y250" s="14">
-        <v>9</v>
-      </c>
+      <c r="Y250" s="14"/>
       <c r="AA250" s="18"/>
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.15">
@@ -22572,15 +22623,8 @@
         <v>300</v>
       </c>
       <c r="X251" s="14"/>
-      <c r="Y251" s="14">
-        <v>52.5</v>
-      </c>
-      <c r="Z251" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA251" s="18">
-        <v>0.70170454545454541</v>
-      </c>
+      <c r="Y251" s="14"/>
+      <c r="AA251" s="18"/>
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
@@ -22619,9 +22663,7 @@
       <c r="V252" s="14"/>
       <c r="W252" s="14"/>
       <c r="X252" s="14"/>
-      <c r="Y252" s="14">
-        <v>4</v>
-      </c>
+      <c r="Y252" s="14"/>
       <c r="AA252" s="18"/>
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.15">
@@ -22655,9 +22697,7 @@
       <c r="V253" s="14"/>
       <c r="W253" s="14"/>
       <c r="X253" s="14"/>
-      <c r="Y253" s="14">
-        <v>1</v>
-      </c>
+      <c r="Y253" s="14"/>
       <c r="AA253" s="18"/>
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.15">
@@ -22697,9 +22737,7 @@
       <c r="V254" s="14"/>
       <c r="W254" s="14"/>
       <c r="X254" s="14"/>
-      <c r="Y254" s="14">
-        <v>3.5</v>
-      </c>
+      <c r="Y254" s="14"/>
       <c r="AA254" s="18"/>
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.15">
@@ -22727,15 +22765,8 @@
         <v>300</v>
       </c>
       <c r="X255" s="16"/>
-      <c r="Y255" s="14">
-        <v>8.5</v>
-      </c>
-      <c r="Z255" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA255" s="18">
-        <v>0.82291666666666663</v>
-      </c>
+      <c r="Y255" s="14"/>
+      <c r="AA255" s="18"/>
     </row>
     <row r="256" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
@@ -22769,229 +22800,235 @@
       <c r="AA256" s="25"/>
     </row>
     <row r="257" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="58"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="58"/>
-      <c r="F257" s="58"/>
-      <c r="G257" s="58"/>
-      <c r="H257" s="58"/>
-      <c r="I257" s="58"/>
-      <c r="J257" s="58"/>
-      <c r="K257" s="58"/>
-      <c r="L257" s="58"/>
-      <c r="M257" s="58"/>
-      <c r="N257" s="58"/>
-      <c r="O257" s="58"/>
-      <c r="P257" s="58"/>
-      <c r="Q257" s="58"/>
-      <c r="R257" s="58"/>
-      <c r="S257" s="58"/>
-      <c r="T257" s="58"/>
-      <c r="U257" s="58"/>
-      <c r="V257" s="58"/>
-      <c r="W257" s="58"/>
-      <c r="X257" s="58"/>
-      <c r="Y257" s="58"/>
-      <c r="Z257" s="58"/>
-      <c r="AA257" s="58"/>
+      <c r="B257" s="60"/>
+      <c r="C257" s="60"/>
+      <c r="D257" s="60"/>
+      <c r="E257" s="60"/>
+      <c r="F257" s="60"/>
+      <c r="G257" s="60"/>
+      <c r="H257" s="60"/>
+      <c r="I257" s="60"/>
+      <c r="J257" s="60"/>
+      <c r="K257" s="60"/>
+      <c r="L257" s="60"/>
+      <c r="M257" s="60"/>
+      <c r="N257" s="60"/>
+      <c r="O257" s="60"/>
+      <c r="P257" s="60"/>
+      <c r="Q257" s="60"/>
+      <c r="R257" s="60"/>
+      <c r="S257" s="60"/>
+      <c r="T257" s="60"/>
+      <c r="U257" s="60"/>
+      <c r="V257" s="60"/>
+      <c r="W257" s="60"/>
+      <c r="X257" s="60"/>
+      <c r="Y257" s="60"/>
+      <c r="Z257" s="60"/>
+      <c r="AA257" s="60"/>
     </row>
     <row r="258" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="60"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="58"/>
-      <c r="G258" s="58"/>
-      <c r="H258" s="58"/>
-      <c r="I258" s="58"/>
-      <c r="J258" s="58"/>
-      <c r="K258" s="58"/>
-      <c r="L258" s="58"/>
-      <c r="M258" s="58"/>
-      <c r="N258" s="58"/>
-      <c r="O258" s="58"/>
-      <c r="P258" s="58"/>
-      <c r="Q258" s="58"/>
-      <c r="R258" s="58"/>
-      <c r="S258" s="58"/>
-      <c r="T258" s="58"/>
-      <c r="U258" s="58"/>
-      <c r="V258" s="58"/>
-      <c r="W258" s="58"/>
-      <c r="X258" s="58"/>
-      <c r="Y258" s="58"/>
-      <c r="Z258" s="58"/>
-      <c r="AA258" s="58"/>
+      <c r="A258" s="65"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="60"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="60"/>
+      <c r="G258" s="60"/>
+      <c r="H258" s="60"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="60"/>
+      <c r="K258" s="60"/>
+      <c r="L258" s="60"/>
+      <c r="M258" s="60"/>
+      <c r="N258" s="60"/>
+      <c r="O258" s="60"/>
+      <c r="P258" s="60"/>
+      <c r="Q258" s="60"/>
+      <c r="R258" s="60"/>
+      <c r="S258" s="60"/>
+      <c r="T258" s="60"/>
+      <c r="U258" s="60"/>
+      <c r="V258" s="60"/>
+      <c r="W258" s="60"/>
+      <c r="X258" s="60"/>
+      <c r="Y258" s="60"/>
+      <c r="Z258" s="60"/>
+      <c r="AA258" s="60"/>
     </row>
     <row r="259" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="60"/>
-      <c r="B259" s="58"/>
-      <c r="C259" s="58"/>
-      <c r="D259" s="58"/>
-      <c r="E259" s="58"/>
-      <c r="F259" s="58"/>
-      <c r="G259" s="58"/>
-      <c r="H259" s="58"/>
-      <c r="I259" s="58"/>
-      <c r="J259" s="58"/>
-      <c r="K259" s="58"/>
-      <c r="L259" s="58"/>
-      <c r="M259" s="58"/>
-      <c r="N259" s="58"/>
-      <c r="O259" s="58"/>
-      <c r="P259" s="58"/>
-      <c r="Q259" s="58"/>
-      <c r="R259" s="58"/>
-      <c r="S259" s="58"/>
-      <c r="T259" s="58"/>
-      <c r="U259" s="58"/>
-      <c r="V259" s="58"/>
-      <c r="W259" s="58"/>
-      <c r="X259" s="58"/>
-      <c r="Y259" s="58"/>
-      <c r="Z259" s="58"/>
-      <c r="AA259" s="58"/>
+      <c r="A259" s="65"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="60"/>
+      <c r="D259" s="60"/>
+      <c r="E259" s="60"/>
+      <c r="F259" s="60"/>
+      <c r="G259" s="60"/>
+      <c r="H259" s="60"/>
+      <c r="I259" s="60"/>
+      <c r="J259" s="60"/>
+      <c r="K259" s="60"/>
+      <c r="L259" s="60"/>
+      <c r="M259" s="60"/>
+      <c r="N259" s="60"/>
+      <c r="O259" s="60"/>
+      <c r="P259" s="60"/>
+      <c r="Q259" s="60"/>
+      <c r="R259" s="60"/>
+      <c r="S259" s="60"/>
+      <c r="T259" s="60"/>
+      <c r="U259" s="60"/>
+      <c r="V259" s="60"/>
+      <c r="W259" s="60"/>
+      <c r="X259" s="60"/>
+      <c r="Y259" s="60"/>
+      <c r="Z259" s="60"/>
+      <c r="AA259" s="60"/>
     </row>
     <row r="260" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="61"/>
-      <c r="B260" s="64"/>
-      <c r="C260" s="65"/>
-      <c r="D260" s="65"/>
-      <c r="E260" s="65"/>
-      <c r="F260" s="65"/>
-      <c r="G260" s="65"/>
-      <c r="H260" s="65"/>
-      <c r="I260" s="65"/>
-      <c r="J260" s="65"/>
-      <c r="K260" s="65"/>
-      <c r="L260" s="65"/>
-      <c r="M260" s="65"/>
-      <c r="N260" s="65"/>
-      <c r="O260" s="65"/>
-      <c r="P260" s="65"/>
-      <c r="Q260" s="65"/>
-      <c r="R260" s="65"/>
-      <c r="S260" s="65"/>
-      <c r="T260" s="65"/>
-      <c r="U260" s="65"/>
-      <c r="V260" s="65"/>
-      <c r="W260" s="65"/>
-      <c r="X260" s="65"/>
-      <c r="Y260" s="65"/>
-      <c r="Z260" s="65"/>
-      <c r="AA260" s="66"/>
+      <c r="A260" s="66"/>
+      <c r="B260" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="C260" s="62"/>
+      <c r="D260" s="62"/>
+      <c r="E260" s="62"/>
+      <c r="F260" s="62"/>
+      <c r="G260" s="62"/>
+      <c r="H260" s="62"/>
+      <c r="I260" s="62"/>
+      <c r="J260" s="62"/>
+      <c r="K260" s="62"/>
+      <c r="L260" s="62"/>
+      <c r="M260" s="62"/>
+      <c r="N260" s="62"/>
+      <c r="O260" s="62"/>
+      <c r="P260" s="62"/>
+      <c r="Q260" s="62"/>
+      <c r="R260" s="62"/>
+      <c r="S260" s="62"/>
+      <c r="T260" s="62"/>
+      <c r="U260" s="62"/>
+      <c r="V260" s="62"/>
+      <c r="W260" s="62"/>
+      <c r="X260" s="62"/>
+      <c r="Y260" s="62"/>
+      <c r="Z260" s="62"/>
+      <c r="AA260" s="63"/>
     </row>
     <row r="261" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="62" t="s">
+      <c r="A261" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="B261" s="58"/>
-      <c r="C261" s="58"/>
-      <c r="D261" s="58"/>
-      <c r="E261" s="58"/>
-      <c r="F261" s="58"/>
-      <c r="G261" s="58"/>
-      <c r="H261" s="58"/>
-      <c r="I261" s="58"/>
-      <c r="J261" s="58"/>
-      <c r="K261" s="58"/>
-      <c r="L261" s="58"/>
-      <c r="M261" s="58"/>
-      <c r="N261" s="58"/>
-      <c r="O261" s="58"/>
-      <c r="P261" s="58"/>
-      <c r="Q261" s="58"/>
-      <c r="R261" s="58"/>
-      <c r="S261" s="58"/>
-      <c r="T261" s="58"/>
-      <c r="U261" s="58"/>
-      <c r="V261" s="58"/>
-      <c r="W261" s="58"/>
-      <c r="X261" s="58"/>
-      <c r="Y261" s="58"/>
-      <c r="Z261" s="58"/>
-      <c r="AA261" s="58"/>
+      <c r="B261" s="60"/>
+      <c r="C261" s="60"/>
+      <c r="D261" s="60"/>
+      <c r="E261" s="60"/>
+      <c r="F261" s="60"/>
+      <c r="G261" s="60"/>
+      <c r="H261" s="60"/>
+      <c r="I261" s="60"/>
+      <c r="J261" s="60"/>
+      <c r="K261" s="60"/>
+      <c r="L261" s="60"/>
+      <c r="M261" s="60"/>
+      <c r="N261" s="60"/>
+      <c r="O261" s="60"/>
+      <c r="P261" s="60"/>
+      <c r="Q261" s="60"/>
+      <c r="R261" s="60"/>
+      <c r="S261" s="60"/>
+      <c r="T261" s="60"/>
+      <c r="U261" s="60"/>
+      <c r="V261" s="60"/>
+      <c r="W261" s="60"/>
+      <c r="X261" s="60"/>
+      <c r="Y261" s="60"/>
+      <c r="Z261" s="60"/>
+      <c r="AA261" s="60"/>
     </row>
     <row r="262" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="62"/>
-      <c r="B262" s="58"/>
-      <c r="C262" s="58"/>
-      <c r="D262" s="58"/>
-      <c r="E262" s="58"/>
-      <c r="F262" s="58"/>
-      <c r="G262" s="58"/>
-      <c r="H262" s="58"/>
-      <c r="I262" s="58"/>
-      <c r="J262" s="58"/>
-      <c r="K262" s="58"/>
-      <c r="L262" s="58"/>
-      <c r="M262" s="58"/>
-      <c r="N262" s="58"/>
-      <c r="O262" s="58"/>
-      <c r="P262" s="58"/>
-      <c r="Q262" s="58"/>
-      <c r="R262" s="58"/>
-      <c r="S262" s="58"/>
-      <c r="T262" s="58"/>
-      <c r="U262" s="58"/>
-      <c r="V262" s="58"/>
-      <c r="W262" s="58"/>
-      <c r="X262" s="58"/>
-      <c r="Y262" s="58"/>
-      <c r="Z262" s="58"/>
-      <c r="AA262" s="58"/>
+      <c r="A262" s="67"/>
+      <c r="B262" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="C262" s="60"/>
+      <c r="D262" s="60"/>
+      <c r="E262" s="60"/>
+      <c r="F262" s="60"/>
+      <c r="G262" s="60"/>
+      <c r="H262" s="60"/>
+      <c r="I262" s="60"/>
+      <c r="J262" s="60"/>
+      <c r="K262" s="60"/>
+      <c r="L262" s="60"/>
+      <c r="M262" s="60"/>
+      <c r="N262" s="60"/>
+      <c r="O262" s="60"/>
+      <c r="P262" s="60"/>
+      <c r="Q262" s="60"/>
+      <c r="R262" s="60"/>
+      <c r="S262" s="60"/>
+      <c r="T262" s="60"/>
+      <c r="U262" s="60"/>
+      <c r="V262" s="60"/>
+      <c r="W262" s="60"/>
+      <c r="X262" s="60"/>
+      <c r="Y262" s="60"/>
+      <c r="Z262" s="60"/>
+      <c r="AA262" s="60"/>
     </row>
     <row r="263" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="B263" s="58"/>
-      <c r="C263" s="58"/>
-      <c r="D263" s="58"/>
-      <c r="E263" s="58"/>
-      <c r="F263" s="58"/>
-      <c r="G263" s="58"/>
-      <c r="H263" s="58"/>
-      <c r="I263" s="58"/>
-      <c r="J263" s="58"/>
-      <c r="K263" s="58"/>
-      <c r="L263" s="58"/>
-      <c r="M263" s="58"/>
-      <c r="N263" s="58"/>
-      <c r="O263" s="58"/>
-      <c r="P263" s="58"/>
-      <c r="Q263" s="58"/>
-      <c r="R263" s="58"/>
-      <c r="S263" s="58"/>
-      <c r="T263" s="58"/>
-      <c r="U263" s="58"/>
-      <c r="V263" s="58"/>
-      <c r="W263" s="58"/>
-      <c r="X263" s="58"/>
-      <c r="Y263" s="58"/>
-      <c r="Z263" s="58"/>
-      <c r="AA263" s="58"/>
+      <c r="B263" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="C263" s="60"/>
+      <c r="D263" s="60"/>
+      <c r="E263" s="60"/>
+      <c r="F263" s="60"/>
+      <c r="G263" s="60"/>
+      <c r="H263" s="60"/>
+      <c r="I263" s="60"/>
+      <c r="J263" s="60"/>
+      <c r="K263" s="60"/>
+      <c r="L263" s="60"/>
+      <c r="M263" s="60"/>
+      <c r="N263" s="60"/>
+      <c r="O263" s="60"/>
+      <c r="P263" s="60"/>
+      <c r="Q263" s="60"/>
+      <c r="R263" s="60"/>
+      <c r="S263" s="60"/>
+      <c r="T263" s="60"/>
+      <c r="U263" s="60"/>
+      <c r="V263" s="60"/>
+      <c r="W263" s="60"/>
+      <c r="X263" s="60"/>
+      <c r="Y263" s="60"/>
+      <c r="Z263" s="60"/>
+      <c r="AA263" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA249">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B261:AA261"/>
+    <mergeCell ref="B262:AA262"/>
+    <mergeCell ref="B263:AA263"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="A261:A262"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="B257:AA257"/>
     <mergeCell ref="B258:AA258"/>
     <mergeCell ref="B259:AA259"/>
     <mergeCell ref="B260:AA260"/>
-    <mergeCell ref="B261:AA261"/>
-    <mergeCell ref="B262:AA262"/>
-    <mergeCell ref="B263:AA263"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="A261:A262"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.70833333333333304" top="1" bottom="1" header="0.74791666666666701" footer="0.5"/>
@@ -23030,35 +23067,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
     </row>
     <row r="2" spans="1:27" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -23133,7 +23170,7 @@
       <c r="X2" s="2">
         <v>28</v>
       </c>
-      <c r="Y2" s="67">
+      <c r="Y2" s="50">
         <v>22</v>
       </c>
     </row>
@@ -33660,221 +33697,221 @@
       <c r="AA256" s="25"/>
     </row>
     <row r="257" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="58"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="58"/>
-      <c r="F257" s="58"/>
-      <c r="G257" s="58"/>
-      <c r="H257" s="58"/>
-      <c r="I257" s="58"/>
-      <c r="J257" s="58"/>
-      <c r="K257" s="58"/>
-      <c r="L257" s="58"/>
-      <c r="M257" s="58"/>
-      <c r="N257" s="58"/>
-      <c r="O257" s="58"/>
-      <c r="P257" s="58"/>
-      <c r="Q257" s="58"/>
-      <c r="R257" s="58"/>
-      <c r="S257" s="58"/>
-      <c r="T257" s="58"/>
-      <c r="U257" s="58"/>
-      <c r="V257" s="58"/>
-      <c r="W257" s="58"/>
-      <c r="X257" s="58"/>
-      <c r="Y257" s="58"/>
-      <c r="Z257" s="58"/>
-      <c r="AA257" s="58"/>
+      <c r="B257" s="60"/>
+      <c r="C257" s="60"/>
+      <c r="D257" s="60"/>
+      <c r="E257" s="60"/>
+      <c r="F257" s="60"/>
+      <c r="G257" s="60"/>
+      <c r="H257" s="60"/>
+      <c r="I257" s="60"/>
+      <c r="J257" s="60"/>
+      <c r="K257" s="60"/>
+      <c r="L257" s="60"/>
+      <c r="M257" s="60"/>
+      <c r="N257" s="60"/>
+      <c r="O257" s="60"/>
+      <c r="P257" s="60"/>
+      <c r="Q257" s="60"/>
+      <c r="R257" s="60"/>
+      <c r="S257" s="60"/>
+      <c r="T257" s="60"/>
+      <c r="U257" s="60"/>
+      <c r="V257" s="60"/>
+      <c r="W257" s="60"/>
+      <c r="X257" s="60"/>
+      <c r="Y257" s="60"/>
+      <c r="Z257" s="60"/>
+      <c r="AA257" s="60"/>
     </row>
     <row r="258" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="60"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="58"/>
-      <c r="G258" s="58"/>
-      <c r="H258" s="58"/>
-      <c r="I258" s="58"/>
-      <c r="J258" s="58"/>
-      <c r="K258" s="58"/>
-      <c r="L258" s="58"/>
-      <c r="M258" s="58"/>
-      <c r="N258" s="58"/>
-      <c r="O258" s="58"/>
-      <c r="P258" s="58"/>
-      <c r="Q258" s="58"/>
-      <c r="R258" s="58"/>
-      <c r="S258" s="58"/>
-      <c r="T258" s="58"/>
-      <c r="U258" s="58"/>
-      <c r="V258" s="58"/>
-      <c r="W258" s="58"/>
-      <c r="X258" s="58"/>
-      <c r="Y258" s="58"/>
-      <c r="Z258" s="58"/>
-      <c r="AA258" s="58"/>
+      <c r="A258" s="65"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="60"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="60"/>
+      <c r="G258" s="60"/>
+      <c r="H258" s="60"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="60"/>
+      <c r="K258" s="60"/>
+      <c r="L258" s="60"/>
+      <c r="M258" s="60"/>
+      <c r="N258" s="60"/>
+      <c r="O258" s="60"/>
+      <c r="P258" s="60"/>
+      <c r="Q258" s="60"/>
+      <c r="R258" s="60"/>
+      <c r="S258" s="60"/>
+      <c r="T258" s="60"/>
+      <c r="U258" s="60"/>
+      <c r="V258" s="60"/>
+      <c r="W258" s="60"/>
+      <c r="X258" s="60"/>
+      <c r="Y258" s="60"/>
+      <c r="Z258" s="60"/>
+      <c r="AA258" s="60"/>
     </row>
     <row r="259" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="60"/>
-      <c r="B259" s="58"/>
-      <c r="C259" s="58"/>
-      <c r="D259" s="58"/>
-      <c r="E259" s="58"/>
-      <c r="F259" s="58"/>
-      <c r="G259" s="58"/>
-      <c r="H259" s="58"/>
-      <c r="I259" s="58"/>
-      <c r="J259" s="58"/>
-      <c r="K259" s="58"/>
-      <c r="L259" s="58"/>
-      <c r="M259" s="58"/>
-      <c r="N259" s="58"/>
-      <c r="O259" s="58"/>
-      <c r="P259" s="58"/>
-      <c r="Q259" s="58"/>
-      <c r="R259" s="58"/>
-      <c r="S259" s="58"/>
-      <c r="T259" s="58"/>
-      <c r="U259" s="58"/>
-      <c r="V259" s="58"/>
-      <c r="W259" s="58"/>
-      <c r="X259" s="58"/>
-      <c r="Y259" s="58"/>
-      <c r="Z259" s="58"/>
-      <c r="AA259" s="58"/>
+      <c r="A259" s="65"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="60"/>
+      <c r="D259" s="60"/>
+      <c r="E259" s="60"/>
+      <c r="F259" s="60"/>
+      <c r="G259" s="60"/>
+      <c r="H259" s="60"/>
+      <c r="I259" s="60"/>
+      <c r="J259" s="60"/>
+      <c r="K259" s="60"/>
+      <c r="L259" s="60"/>
+      <c r="M259" s="60"/>
+      <c r="N259" s="60"/>
+      <c r="O259" s="60"/>
+      <c r="P259" s="60"/>
+      <c r="Q259" s="60"/>
+      <c r="R259" s="60"/>
+      <c r="S259" s="60"/>
+      <c r="T259" s="60"/>
+      <c r="U259" s="60"/>
+      <c r="V259" s="60"/>
+      <c r="W259" s="60"/>
+      <c r="X259" s="60"/>
+      <c r="Y259" s="60"/>
+      <c r="Z259" s="60"/>
+      <c r="AA259" s="60"/>
     </row>
     <row r="260" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="61"/>
-      <c r="B260" s="64" t="s">
+      <c r="A260" s="66"/>
+      <c r="B260" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="C260" s="65"/>
-      <c r="D260" s="65"/>
-      <c r="E260" s="65"/>
-      <c r="F260" s="65"/>
-      <c r="G260" s="65"/>
-      <c r="H260" s="65"/>
-      <c r="I260" s="65"/>
-      <c r="J260" s="65"/>
-      <c r="K260" s="65"/>
-      <c r="L260" s="65"/>
-      <c r="M260" s="65"/>
-      <c r="N260" s="65"/>
-      <c r="O260" s="65"/>
-      <c r="P260" s="65"/>
-      <c r="Q260" s="65"/>
-      <c r="R260" s="65"/>
-      <c r="S260" s="65"/>
-      <c r="T260" s="65"/>
-      <c r="U260" s="65"/>
-      <c r="V260" s="65"/>
-      <c r="W260" s="65"/>
-      <c r="X260" s="65"/>
-      <c r="Y260" s="65"/>
-      <c r="Z260" s="65"/>
-      <c r="AA260" s="66"/>
+      <c r="C260" s="62"/>
+      <c r="D260" s="62"/>
+      <c r="E260" s="62"/>
+      <c r="F260" s="62"/>
+      <c r="G260" s="62"/>
+      <c r="H260" s="62"/>
+      <c r="I260" s="62"/>
+      <c r="J260" s="62"/>
+      <c r="K260" s="62"/>
+      <c r="L260" s="62"/>
+      <c r="M260" s="62"/>
+      <c r="N260" s="62"/>
+      <c r="O260" s="62"/>
+      <c r="P260" s="62"/>
+      <c r="Q260" s="62"/>
+      <c r="R260" s="62"/>
+      <c r="S260" s="62"/>
+      <c r="T260" s="62"/>
+      <c r="U260" s="62"/>
+      <c r="V260" s="62"/>
+      <c r="W260" s="62"/>
+      <c r="X260" s="62"/>
+      <c r="Y260" s="62"/>
+      <c r="Z260" s="62"/>
+      <c r="AA260" s="63"/>
     </row>
     <row r="261" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="62" t="s">
+      <c r="A261" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="B261" s="58" t="s">
+      <c r="B261" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="C261" s="58"/>
-      <c r="D261" s="58"/>
-      <c r="E261" s="58"/>
-      <c r="F261" s="58"/>
-      <c r="G261" s="58"/>
-      <c r="H261" s="58"/>
-      <c r="I261" s="58"/>
-      <c r="J261" s="58"/>
-      <c r="K261" s="58"/>
-      <c r="L261" s="58"/>
-      <c r="M261" s="58"/>
-      <c r="N261" s="58"/>
-      <c r="O261" s="58"/>
-      <c r="P261" s="58"/>
-      <c r="Q261" s="58"/>
-      <c r="R261" s="58"/>
-      <c r="S261" s="58"/>
-      <c r="T261" s="58"/>
-      <c r="U261" s="58"/>
-      <c r="V261" s="58"/>
-      <c r="W261" s="58"/>
-      <c r="X261" s="58"/>
-      <c r="Y261" s="58"/>
-      <c r="Z261" s="58"/>
-      <c r="AA261" s="58"/>
+      <c r="C261" s="60"/>
+      <c r="D261" s="60"/>
+      <c r="E261" s="60"/>
+      <c r="F261" s="60"/>
+      <c r="G261" s="60"/>
+      <c r="H261" s="60"/>
+      <c r="I261" s="60"/>
+      <c r="J261" s="60"/>
+      <c r="K261" s="60"/>
+      <c r="L261" s="60"/>
+      <c r="M261" s="60"/>
+      <c r="N261" s="60"/>
+      <c r="O261" s="60"/>
+      <c r="P261" s="60"/>
+      <c r="Q261" s="60"/>
+      <c r="R261" s="60"/>
+      <c r="S261" s="60"/>
+      <c r="T261" s="60"/>
+      <c r="U261" s="60"/>
+      <c r="V261" s="60"/>
+      <c r="W261" s="60"/>
+      <c r="X261" s="60"/>
+      <c r="Y261" s="60"/>
+      <c r="Z261" s="60"/>
+      <c r="AA261" s="60"/>
     </row>
     <row r="262" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="62"/>
-      <c r="B262" s="58" t="s">
+      <c r="A262" s="67"/>
+      <c r="B262" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="C262" s="58"/>
-      <c r="D262" s="58"/>
-      <c r="E262" s="58"/>
-      <c r="F262" s="58"/>
-      <c r="G262" s="58"/>
-      <c r="H262" s="58"/>
-      <c r="I262" s="58"/>
-      <c r="J262" s="58"/>
-      <c r="K262" s="58"/>
-      <c r="L262" s="58"/>
-      <c r="M262" s="58"/>
-      <c r="N262" s="58"/>
-      <c r="O262" s="58"/>
-      <c r="P262" s="58"/>
-      <c r="Q262" s="58"/>
-      <c r="R262" s="58"/>
-      <c r="S262" s="58"/>
-      <c r="T262" s="58"/>
-      <c r="U262" s="58"/>
-      <c r="V262" s="58"/>
-      <c r="W262" s="58"/>
-      <c r="X262" s="58"/>
-      <c r="Y262" s="58"/>
-      <c r="Z262" s="58"/>
-      <c r="AA262" s="58"/>
+      <c r="C262" s="60"/>
+      <c r="D262" s="60"/>
+      <c r="E262" s="60"/>
+      <c r="F262" s="60"/>
+      <c r="G262" s="60"/>
+      <c r="H262" s="60"/>
+      <c r="I262" s="60"/>
+      <c r="J262" s="60"/>
+      <c r="K262" s="60"/>
+      <c r="L262" s="60"/>
+      <c r="M262" s="60"/>
+      <c r="N262" s="60"/>
+      <c r="O262" s="60"/>
+      <c r="P262" s="60"/>
+      <c r="Q262" s="60"/>
+      <c r="R262" s="60"/>
+      <c r="S262" s="60"/>
+      <c r="T262" s="60"/>
+      <c r="U262" s="60"/>
+      <c r="V262" s="60"/>
+      <c r="W262" s="60"/>
+      <c r="X262" s="60"/>
+      <c r="Y262" s="60"/>
+      <c r="Z262" s="60"/>
+      <c r="AA262" s="60"/>
     </row>
     <row r="263" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="B263" s="58" t="s">
+      <c r="B263" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="C263" s="58"/>
-      <c r="D263" s="58"/>
-      <c r="E263" s="58"/>
-      <c r="F263" s="58"/>
-      <c r="G263" s="58"/>
-      <c r="H263" s="58"/>
-      <c r="I263" s="58"/>
-      <c r="J263" s="58"/>
-      <c r="K263" s="58"/>
-      <c r="L263" s="58"/>
-      <c r="M263" s="58"/>
-      <c r="N263" s="58"/>
-      <c r="O263" s="58"/>
-      <c r="P263" s="58"/>
-      <c r="Q263" s="58"/>
-      <c r="R263" s="58"/>
-      <c r="S263" s="58"/>
-      <c r="T263" s="58"/>
-      <c r="U263" s="58"/>
-      <c r="V263" s="58"/>
-      <c r="W263" s="58"/>
-      <c r="X263" s="58"/>
-      <c r="Y263" s="58"/>
-      <c r="Z263" s="58"/>
-      <c r="AA263" s="58"/>
+      <c r="C263" s="60"/>
+      <c r="D263" s="60"/>
+      <c r="E263" s="60"/>
+      <c r="F263" s="60"/>
+      <c r="G263" s="60"/>
+      <c r="H263" s="60"/>
+      <c r="I263" s="60"/>
+      <c r="J263" s="60"/>
+      <c r="K263" s="60"/>
+      <c r="L263" s="60"/>
+      <c r="M263" s="60"/>
+      <c r="N263" s="60"/>
+      <c r="O263" s="60"/>
+      <c r="P263" s="60"/>
+      <c r="Q263" s="60"/>
+      <c r="R263" s="60"/>
+      <c r="S263" s="60"/>
+      <c r="T263" s="60"/>
+      <c r="U263" s="60"/>
+      <c r="V263" s="60"/>
+      <c r="W263" s="60"/>
+      <c r="X263" s="60"/>
+      <c r="Y263" s="60"/>
+      <c r="Z263" s="60"/>
+      <c r="AA263" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="10">
